--- a/AVK_DevOps_Plan.xlsx
+++ b/AVK_DevOps_Plan.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="12420"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="12420" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Courses" sheetId="1" r:id="rId1"/>
+    <sheet name="COURSES" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
+    <sheet name="DB-N" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="396">
   <si>
     <t>LINUX</t>
   </si>
@@ -247,6 +250,966 @@
   </si>
   <si>
     <t>FOR THIS LONG TERM, I SHOULD NOT GO TO OTHER TOPIC TILL ONE TOPIC IS PERFECT.</t>
+  </si>
+  <si>
+    <t>SLEEP</t>
+  </si>
+  <si>
+    <t>STUDY</t>
+  </si>
+  <si>
+    <t>KIDS</t>
+  </si>
+  <si>
+    <t>JOB/STUDY</t>
+  </si>
+  <si>
+    <t>PLAN TILL MAY</t>
+  </si>
+  <si>
+    <t>KIDS CLASS</t>
+  </si>
+  <si>
+    <t>ONCE THE TOPICS ARE COMPLETED IN THE MORNING, REVISE THEM IN THE EVENING DURING JOB HOURS.</t>
+  </si>
+  <si>
+    <t>COURSES</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>SONARQUBE, MAVEN, JFROG</t>
+  </si>
+  <si>
+    <t>KUBERNETES &amp; HELM &amp; MONITORING</t>
+  </si>
+  <si>
+    <t>LINUX MOBI</t>
+  </si>
+  <si>
+    <t>LINUX NOTES</t>
+  </si>
+  <si>
+    <t>DEVOPS IMRAN TELI</t>
+  </si>
+  <si>
+    <t>UDEMY RANGA KARANAM</t>
+  </si>
+  <si>
+    <t>UDEMY KALYAN DAIDA</t>
+  </si>
+  <si>
+    <t>DCC AR REDDY</t>
+  </si>
+  <si>
+    <t>DEVOPS MASTERCLASS ANSHUL</t>
+  </si>
+  <si>
+    <t>UDEMY SHIKHAR</t>
+  </si>
+  <si>
+    <t>ALL UDEMY COURSES</t>
+  </si>
+  <si>
+    <t>UDEMY RAKSHIT</t>
+  </si>
+  <si>
+    <t>UDEMY JIRA</t>
+  </si>
+  <si>
+    <t>JIRA INTEGRATIONS COURSE</t>
+  </si>
+  <si>
+    <t>15.8 DAYS WILL TAKE TO JUST GO THROUGH THE COURSE</t>
+  </si>
+  <si>
+    <t>23 DAYS NEED TO COMPLETE IN 23 DAYS</t>
+  </si>
+  <si>
+    <t>7 DAYS FOR INTERVIEW QUESTIONS AND PROJECTS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - Introduction to DevOps </t>
+  </si>
+  <si>
+    <t>1 - Introduction to Operating Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - Introduction to Virtualization &amp; Virtual Machines </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - Setup a Linux Virtual Machine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 - Linux File System </t>
+  </si>
+  <si>
+    <t>5 - Introduction to Command Line Interface (CLI - Part 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 - Basic Linux Commands (CLI - Part 2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 - Package Manager - Installing Software on Linux </t>
+  </si>
+  <si>
+    <t>8 - Working with Vim Editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 - Linux Accounts &amp; Groups (Users &amp; Permissions Part 1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 - File Ownership &amp; Permissions (Users &amp; Permissions - Part 2) </t>
+  </si>
+  <si>
+    <t>11 - Basic Linux Commands - Pipes &amp; Redirects (CLI - Part 3)</t>
+  </si>
+  <si>
+    <t>12 - Introduction to Shell Scripting Part 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 - Shell Scripting Part 2 - Concepts &amp; Syntax </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 - Shell Scripting Part 3 - Concepts &amp; Syntax </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 - Environment Variables </t>
+  </si>
+  <si>
+    <t>16 - Networking</t>
+  </si>
+  <si>
+    <t>17 - SSH - Secure Shell</t>
+  </si>
+  <si>
+    <t>1 - Introduction to Version Control and Git</t>
+  </si>
+  <si>
+    <t>2 - Basic Concepts of Git</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - Setup Git Repository Remote and Local </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 - Working with Git </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 - Initialize a Git project locally </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 - Concept of Branches </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 - Merge Requests </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 - Deleting Branches </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 - Rebase </t>
+  </si>
+  <si>
+    <t>10 - Resolving Merge Conflicts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 - Gitignore </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 - Git stash </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 - Going back in history </t>
+  </si>
+  <si>
+    <t>14 - Undoing commits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 - Merging branches </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 - Git for Devops </t>
+  </si>
+  <si>
+    <t>2 - Database Types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - Introduction to Build Tools </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - Install Build Tools </t>
+  </si>
+  <si>
+    <t>3 - Installation Help for Windows User - Part 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 - Installation Help for Windows User - Part 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 - Installation Help for MacOS-Unix User </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 - Build an Artifact </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 - Build Tools for Development </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 - Run the Application </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 - Build JS Applications </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 - Common Concepts and Differences of Build Tools </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 - Publish an Artifact </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 - Build Tools &amp; Docker </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 - Build Tools for DevOps </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - Intro to Cloud &amp; IaaS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - Setup Server on DigitalOcean </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - Deploy and run application artifact on Droplet </t>
+  </si>
+  <si>
+    <t>4 - Create and configure a Linux user on a cloud server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - Intro to Artifact Repository Manager </t>
+  </si>
+  <si>
+    <t>2 - Install and Run Nexus on a cloud server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - Introduction to Nexus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 - Repository Types </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 - Publish Artifact to Repository </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 - Nexus REST API </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 - Blob Store </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 - Component vs Asset </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 - Cleanup Policies and Scheduled Tasks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - What is a Container </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - Container vs Image </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - Docker vs. Virtual Machine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 - Docker Architecture and components </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 - Main Docker Commands </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 - Debug Commands </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 - Docker Demo - Project Overview </t>
+  </si>
+  <si>
+    <t>8 - Developing with Docker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 - Docker Compose - Run multiple Docker containers </t>
+  </si>
+  <si>
+    <t>10 - Dockerfile - Build your own Docker Image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 - Private Docker Repository </t>
+  </si>
+  <si>
+    <t>12 - Deploy docker application on a server</t>
+  </si>
+  <si>
+    <t>13 - Docker Volumes - Persisting Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 - Docker Volumes Demo </t>
+  </si>
+  <si>
+    <t>15 - Create Docker Hosted Repository on Nexus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 - Deploy Nexus as Docker Container </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - Intro to Build Automation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - Install Jenkins </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - Introduction to Jenkins UI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 - Install Build Tools in Jenkins </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 - Jenkins Basics Demo - Freestyle Job </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 - Docker in Jenkins </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 - Freestyle to Pipeline Job </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 - Intro to Pipeline Job </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 - Jenkinsfile Syntax </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 - Create complete Pipeline </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 - Intro to Multibranch Pipeline </t>
+  </si>
+  <si>
+    <t>12 - Jenkins Jobs Overview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 - Credentials in Jenkins </t>
+  </si>
+  <si>
+    <t>14 - Jenkins Shared Library</t>
+  </si>
+  <si>
+    <t>15 - Webhooks - Trigger Pipeline Jobs automatically</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 - Dynamically Increment Application version in Jenkins Pipeline - Part 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 - Dynamically Increment Application version in Jenkins Pipeline - Part 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - Introduction to AWS </t>
+  </si>
+  <si>
+    <t>2 - Create an AWS account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - IAM - Manage Users, Roles and Permissions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 - Regions &amp; Availability Zones </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 - VPC - Manage Private Network on AWS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 - CIDR Blocks explained </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 - Introduction to EC2 Virtual Cloud Server </t>
+  </si>
+  <si>
+    <t>8 - Deploy to EC2 server from Jenkins Pipeline - CI/CD Part 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 - Deploy to EC2 server from Jenkins Pipeline - CI/CD Part 2 </t>
+  </si>
+  <si>
+    <t>10 - Deploy to EC2 server from Jenkins Pipeline - CI/CD Part 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 - Introduction to AWS CLI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 - AWS &amp; Terraform Preview </t>
+  </si>
+  <si>
+    <t>13 - Container Services on AWS Preview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - Intro to Kubernetes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - Main Kubernetes Components </t>
+  </si>
+  <si>
+    <t>3 - Kubernetes Architecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 - Minikube and kubectl - Local Kubernetes Cluster </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 - Main kubectl commands </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 - YAML Configuration File </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 - Complete Demo Project - Deploying Application in Kubernetes Cluster </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 - Namespaces - Organizing Components </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 - Services - Connecting to Applications inside cluster </t>
+  </si>
+  <si>
+    <t>10 - Ingress - Connecting to Applications outside cluster</t>
+  </si>
+  <si>
+    <t>11 - Volumes - Persisting Application Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 - ConfigMap &amp; Secret Volume Types </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 - StatefulSet - Deploying Stateful Applications </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 - Managed Kubernetes Services Explained </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 - Helm - Package Manager for Kubernetes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 - Helm Demo - Managed K8s cluster </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 - Deploying Images in Kubernetes from private Docker repository </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 - Kubernetes Operators for Managing Complex Applications </t>
+  </si>
+  <si>
+    <t>19 - Helm and Operator Demo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 - Secure your cluster - Authorization with RBAC </t>
+  </si>
+  <si>
+    <t>21 - Microservices in Kubernetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 - Demo project: Deploy Microservices Application </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 - Production &amp; Security Best Practices </t>
+  </si>
+  <si>
+    <t>24 - Demo project: Create Helm Chart for Microservices</t>
+  </si>
+  <si>
+    <t>25 - Demo project: Deploy Microservices with Helmfile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - Container Services on AWS </t>
+  </si>
+  <si>
+    <t>2 - Create EKS cluster with AWS Management Console</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - Configure Autoscaling in EKS cluster </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 - Create Fargate Profile for EKS Cluster </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 - Create EKS cluster with eksctl command line tool </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 - Deploy to EKS Cluster from Jenkins Pipeline </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 - BONUS: Deploy to LKE Cluster from Jenkins Pipeline </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 - Jenkins Credentials Note on Best Practices </t>
+  </si>
+  <si>
+    <t>9 - Complete CI/CD Pipeline with EKS and DockerHub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 - Complete CI/CD Pipeline with EKS and ECR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - Introduction to Terraform </t>
+  </si>
+  <si>
+    <t>2 - Install Terraform &amp; Setup Terraform Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - Providers in Terraform </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 - Resources &amp; Data Sources </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 - Change &amp; Destroy Terraform Resources </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 - Terraform commands </t>
+  </si>
+  <si>
+    <t>7 - Terraform State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 - Output Values </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 - Variables in Terraform </t>
+  </si>
+  <si>
+    <t>10 - Environment Variables in Terraform</t>
+  </si>
+  <si>
+    <t>11 - Create Git Repository for local Terraform Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 - Automate Provisioning EC2 with Terraform - Part 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 - Automate Provisioning EC2 with Terraform - Part 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 - Automate Provisioning EC2 with Terraform - Part 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 - Provisioners in Terraform </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 - Modules in Terraform - Part 1 </t>
+  </si>
+  <si>
+    <t>17 - Modules in Terraform - Part 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 - Modules in Terraform - Part 3 </t>
+  </si>
+  <si>
+    <t>19 - Automate Provisioning EKS cluster with Terraform - Part 1</t>
+  </si>
+  <si>
+    <t>20 - Automate Provisioning EKS cluster with Terraform - Part 2</t>
+  </si>
+  <si>
+    <t>21 - Automate Provisioning EKS cluster with Terraform - Part 3</t>
+  </si>
+  <si>
+    <t>22 - Complete CI/CD with Terraform - Part 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 - Complete CI/CD with Terraform - Part 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 - Complete CI/CD with Terraform - Part 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 - Remote State in Terraform </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - Introduction to Python </t>
+  </si>
+  <si>
+    <t>2 - Installation and Local Setup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - Our first Python Program </t>
+  </si>
+  <si>
+    <t>4 - Python IDE vs Simple File Editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 - Strings and Number Data Types </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 - Variables </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 - Functions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 - Accepting User Input </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 - Conditionals (if / else) and Boolean Data Type </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 - Error Handling with Try-Except </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 - While Loops </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 - Lists and For Loops </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 - Comments </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 - Sets </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 - Built-In Functions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 - Dictionary Data Type </t>
+  </si>
+  <si>
+    <t>17 - Modules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 - Project: Countdown App </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 - Packages, PyPI and pip </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 - Project: Automation with Python (Spreadsheet) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 - OOP: Classes and Objects </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 - Project: API Request to GitLab </t>
+  </si>
+  <si>
+    <t>1 - Introduction to Boto Library (AWS SDK for Python)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - Install Boto3 and connect to AWS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - Getting familiar with Boto </t>
+  </si>
+  <si>
+    <t>4 - Terraform vs Python - understand when to use which tool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 - Health Check: EC2 Status Checks </t>
+  </si>
+  <si>
+    <t>6 - Write a Scheduled Task in Python</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 - Configure Server: Add Environment Tags to EC2 Instances </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 - EKS cluster information </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 - Backup EC2 Volumes: Automate creating Snapshots </t>
+  </si>
+  <si>
+    <t>10 - Automate cleanup of old Snapshots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 - Automate restoring EC2 Volume from the Backup </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 - Handling Errors </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 - Website Monitoring 1: Scheduled Task to Monitor Application Health </t>
+  </si>
+  <si>
+    <t>14 - Website Monitoring 2: Automated Email Notification</t>
+  </si>
+  <si>
+    <t>15 - Website Monitoring 3: Restart Application and Reboot Server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - Introduction to Ansible </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - Install Ansible </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - Setup Managed Server to Configure with Ansible </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 - Ansible Inventory and Ansible ad-hoc commands </t>
+  </si>
+  <si>
+    <t>5 - Configure AWS EC2 server with Ansible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 - Managing Host Key Checking and SSH keys </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 - Introduction to Playbooks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 - Ansible Modules </t>
+  </si>
+  <si>
+    <t>9 - Collections in Ansible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 - Project: Deploy Nodejs application - Part 1 </t>
+  </si>
+  <si>
+    <t>11 - Project: Deploy Nodejs application - Part 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 - Project: Deploy Nodejs application - Part 3 </t>
+  </si>
+  <si>
+    <t>13 - Ansible Variables - make your Playbook customizable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 - Project Deploy Nexus - Part 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 - Project Deploy Nexus - Part 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 - Ansible Configuration - Default Inventory File </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 - Project: Run Docker applications - Part 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 - Project: Run Docker applications - Part 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 - Project: Terraform &amp; Ansible </t>
+  </si>
+  <si>
+    <t>20 - Dynamic Inventory for EC2 Servers</t>
+  </si>
+  <si>
+    <t>21 - Project: Deploying Application in K8s</t>
+  </si>
+  <si>
+    <t>22 - Project: Run Ansible from Jenkins Pipeline - Part 1</t>
+  </si>
+  <si>
+    <t>23 - Project: Run Ansible from Jenkins Pipeline - Part 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 - Project: Run Ansible from Jenkins Pipeline - Part 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 - Ansible Roles - Make your Ansible content more reusable and modular </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - Introduction to Monitoring with Prometheus </t>
+  </si>
+  <si>
+    <t>2 - Install Prometheus Stack in Kubernetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - Data Visualization with Prometheus UI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 - Introduction to Grafana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 - Alert Rules in Prometheus </t>
+  </si>
+  <si>
+    <t>6 - Create own Alert Rules - Part 1</t>
+  </si>
+  <si>
+    <t>7 - Create own Alert Rules - Part 2</t>
+  </si>
+  <si>
+    <t>8 - Create own Alert Rules - Part 3</t>
+  </si>
+  <si>
+    <t>9 - Introduction to Alertmanager</t>
+  </si>
+  <si>
+    <t>10 - Configure Alertmanager with Email Receiver</t>
+  </si>
+  <si>
+    <t>11 - Trigger Alerts for Email Receiver</t>
+  </si>
+  <si>
+    <t>12 - Monitor Third-Party Applications</t>
+  </si>
+  <si>
+    <t>13 - Deploy Redis Exporter</t>
+  </si>
+  <si>
+    <t>14 - Alert Rules &amp; Grafana Dashboard for Redis</t>
+  </si>
+  <si>
+    <t>15 - Collect &amp; Expose Metrics with Prometheus Client Library (Monitor own App - Part 1)</t>
+  </si>
+  <si>
+    <t>16 - Scrape Own Application Metrics &amp; Configure Own Grafana Dashboard (Monitor own App - Part 2)</t>
+  </si>
+  <si>
+    <t>0 - Congratulations &amp; Wrap Up</t>
+  </si>
+  <si>
+    <t>DEVOPS BOOTCAMP - NANA TOPICS</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>leave</t>
+  </si>
+  <si>
+    <t>NTA</t>
+  </si>
+  <si>
+    <t>NTA NM</t>
+  </si>
+  <si>
+    <t>SALARY DAY</t>
+  </si>
+  <si>
+    <t>LOAN</t>
+  </si>
+  <si>
+    <t>WAIT FOR JANUARY MONTH SALARY - WORK HARD</t>
+  </si>
+  <si>
+    <t>FEB</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>APR</t>
+  </si>
+  <si>
+    <t>MAY</t>
+  </si>
+  <si>
+    <t>IN THE MONTH OF FEB RESIGN TELLING THAT FATHER DIAGNONISED BY CANCER</t>
+  </si>
+  <si>
+    <t>BUT I WILL CONTINUE TO SERVE FOR 3 MONTHS</t>
+  </si>
+  <si>
+    <t>I NEED TO BE PREPARED IN 2 MONTHS AND IN THE LAST MONTH, I NEED TO APPLY FOR JOBS.</t>
+  </si>
+  <si>
+    <t>I NEED TO PREPARE THE FULL DEVOPS COURSE IN 50 DAYS AND IN LAST 10 DAYS I NEED TO PREPARE FOR INTERVIEW QUESTIONS</t>
+  </si>
+  <si>
+    <t>DURING THIS TIME, I NEED TO GET PAY.</t>
+  </si>
+  <si>
+    <t>THE VIDEO LEARNING PROCESS SHOULD NOT BE LIKE I HAVE BEEN DOING.</t>
+  </si>
+  <si>
+    <t>IF SHE IS TELLING A POINT OR ANY CONCEPT, NEED TO UNDERSTAND THAT AND WRITE IN ONE NOTE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NOT JUST TAKING THE SCREENSHOT AND PASTING. </t>
+  </si>
+  <si>
+    <t>1 - Bootcamp Overview + Tools Installation Checklist (29.09)</t>
+  </si>
+  <si>
+    <t>0 - Module Intro + Checklist (400.39) ~ 16.68 HRS</t>
+  </si>
+  <si>
+    <t>0 - Module Intro + Checklist (99.3) ~ 4.15</t>
+  </si>
+  <si>
+    <t>1 - Databases in development process 28.85</t>
+  </si>
+  <si>
+    <t>0 - Module Intro + Checklist (107.06) ~ 4.47</t>
+  </si>
+  <si>
+    <t>0 - Module Intro + Checklist (30.18)</t>
+  </si>
+  <si>
+    <t>0 - Module Intro + Checklist (98.43) ~ 4.11</t>
+  </si>
+  <si>
+    <t>0 - Module Intro + Checklist (175.18) ~ 7.30</t>
+  </si>
+  <si>
+    <t>0 - Module Intro + Checklist (315.90) ~ 13.15</t>
+  </si>
+  <si>
+    <t>0 - Module Intro + Checklist (212.31) ~ 8.90</t>
+  </si>
+  <si>
+    <t>0 - Module Intro + Checklist (483.18) ~ 20.15</t>
+  </si>
+  <si>
+    <t>0 - Module Intro + Checklist (247.44) ~ 10.31</t>
+  </si>
+  <si>
+    <t>0 - Module Intro + Checklist (465.64) ~ 19.40</t>
+  </si>
+  <si>
+    <t>0 - Module Intro + Checklist (323.30) ~ 13.50</t>
+  </si>
+  <si>
+    <t>0 - Module Intro + Checklist (260.67) ~ 10.90</t>
+  </si>
+  <si>
+    <t>0 - Module Intro + Checklist (441.96) ~ 18.45</t>
+  </si>
+  <si>
+    <t>0 - Module Intro + Checklist (242.62) ~ 10.15</t>
+  </si>
+  <si>
+    <t>JFROG</t>
+  </si>
+  <si>
+    <t>HAVE TO INTEGRATE ALL THE COURSES, WITH NANA COURSE.</t>
+  </si>
+  <si>
+    <t>ITS ABOUT HOW I UNDERSTAND THE CONCEPTS. JUST NOT TO GO FOR RACE.</t>
   </si>
 </sst>
 </file>
@@ -262,7 +1225,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,8 +1238,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -284,11 +1265,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -303,6 +1299,27 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,10 +1601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,7 +1614,7 @@
     <col min="3" max="3" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -614,7 +1631,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -631,7 +1648,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="7">
+        <v>44584</v>
+      </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
@@ -639,7 +1659,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>6</v>
       </c>
@@ -647,7 +1667,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -661,25 +1681,28 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="M7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -692,13 +1715,25 @@
       <c r="D9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <v>23</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>4</v>
       </c>
@@ -711,8 +1746,17 @@
       <c r="D11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>5</v>
       </c>
@@ -725,13 +1769,31 @@
       <c r="D12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>6</v>
       </c>
@@ -744,18 +1806,45 @@
       <c r="D14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <v>3</v>
+      </c>
+      <c r="N14">
+        <v>4</v>
+      </c>
+      <c r="O14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <v>4</v>
+      </c>
+      <c r="N15">
+        <v>5</v>
+      </c>
+      <c r="O15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D16" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <v>5</v>
+      </c>
+      <c r="N16">
+        <v>6</v>
+      </c>
+      <c r="O16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>7</v>
       </c>
@@ -765,8 +1854,17 @@
       <c r="C17" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <v>6</v>
+      </c>
+      <c r="N17">
+        <v>7</v>
+      </c>
+      <c r="O17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>8</v>
       </c>
@@ -776,8 +1874,17 @@
       <c r="C18" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <v>7</v>
+      </c>
+      <c r="N18">
+        <v>8</v>
+      </c>
+      <c r="O18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>9</v>
       </c>
@@ -790,23 +1897,59 @@
       <c r="D19" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <v>8</v>
+      </c>
+      <c r="N19">
+        <v>9</v>
+      </c>
+      <c r="O19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <v>9</v>
+      </c>
+      <c r="N20">
+        <v>10</v>
+      </c>
+      <c r="O20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <v>10</v>
+      </c>
+      <c r="N21">
+        <v>11</v>
+      </c>
+      <c r="O21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <v>11</v>
+      </c>
+      <c r="N22">
+        <v>12</v>
+      </c>
+      <c r="O22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>10</v>
       </c>
@@ -819,28 +1962,73 @@
       <c r="D23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <v>12</v>
+      </c>
+      <c r="N23">
+        <v>13</v>
+      </c>
+      <c r="O23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <v>13</v>
+      </c>
+      <c r="N24">
+        <v>14</v>
+      </c>
+      <c r="O24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="M25">
+        <v>14</v>
+      </c>
+      <c r="N25">
+        <v>15</v>
+      </c>
+      <c r="O25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="M26">
+        <v>15</v>
+      </c>
+      <c r="N26">
+        <v>16</v>
+      </c>
+      <c r="O26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="M27">
+        <v>16</v>
+      </c>
+      <c r="N27">
+        <v>17</v>
+      </c>
+      <c r="O27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>11</v>
       </c>
@@ -853,23 +2041,59 @@
       <c r="D28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="M28">
+        <v>17</v>
+      </c>
+      <c r="N28">
+        <v>18</v>
+      </c>
+      <c r="O28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <v>18</v>
+      </c>
+      <c r="N29">
+        <v>19</v>
+      </c>
+      <c r="O29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="M30">
+        <v>19</v>
+      </c>
+      <c r="N30">
+        <v>20</v>
+      </c>
+      <c r="O30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="M31">
+        <v>20</v>
+      </c>
+      <c r="N31">
+        <v>21</v>
+      </c>
+      <c r="O31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>12</v>
       </c>
@@ -882,18 +2106,36 @@
       <c r="D32" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="M32">
+        <v>21</v>
+      </c>
+      <c r="N32">
+        <v>22</v>
+      </c>
+      <c r="O32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <v>22</v>
+      </c>
+      <c r="N33">
+        <v>23</v>
+      </c>
+      <c r="O33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D34" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>13</v>
       </c>
@@ -907,7 +2149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>14</v>
       </c>
@@ -921,17 +2163,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>15</v>
       </c>
@@ -945,17 +2187,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>16</v>
       </c>
@@ -969,22 +2211,22 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D45" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>17</v>
       </c>
@@ -998,12 +2240,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>18</v>
       </c>
@@ -1062,6 +2304,2431 @@
       <c r="C53" t="s">
         <v>71</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I2" s="9">
+        <v>44578</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" t="s">
+        <v>359</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="I3" s="9">
+        <v>44579</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" t="s">
+        <v>358</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="I4" s="9">
+        <v>44580</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" t="s">
+        <v>359</v>
+      </c>
+      <c r="L4" t="s">
+        <v>364</v>
+      </c>
+      <c r="M4" t="s">
+        <v>365</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="I5" s="9">
+        <v>44581</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" t="s">
+        <v>359</v>
+      </c>
+      <c r="L5" t="s">
+        <v>365</v>
+      </c>
+      <c r="M5" t="s">
+        <v>366</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="P5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="I6" s="9">
+        <v>44582</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K6" t="s">
+        <v>359</v>
+      </c>
+      <c r="L6" t="s">
+        <v>366</v>
+      </c>
+      <c r="M6" t="s">
+        <v>367</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7">
+        <v>28</v>
+      </c>
+      <c r="I7" s="9">
+        <v>44583</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7">
+        <v>6</v>
+      </c>
+      <c r="P7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8">
+        <v>45</v>
+      </c>
+      <c r="I8" s="9">
+        <v>44584</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8">
+        <v>7</v>
+      </c>
+      <c r="P8" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="I9" s="9">
+        <v>44585</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" t="s">
+        <v>359</v>
+      </c>
+      <c r="O9">
+        <v>8</v>
+      </c>
+      <c r="P9" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="I10" s="9">
+        <v>44586</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="K10" t="s">
+        <v>359</v>
+      </c>
+      <c r="O10">
+        <v>9</v>
+      </c>
+      <c r="P10" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11">
+        <v>7</v>
+      </c>
+      <c r="I11" s="9">
+        <v>44587</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" t="s">
+        <v>360</v>
+      </c>
+      <c r="O11">
+        <v>10</v>
+      </c>
+      <c r="P11" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="I12" s="9">
+        <v>44588</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K12" t="s">
+        <v>360</v>
+      </c>
+      <c r="O12">
+        <v>11</v>
+      </c>
+      <c r="P12" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13">
+        <v>9</v>
+      </c>
+      <c r="I13" s="9">
+        <v>44589</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14">
+        <v>26</v>
+      </c>
+      <c r="I14" s="9">
+        <v>44590</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="I15" s="9">
+        <v>44591</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+      <c r="I16" s="9">
+        <v>44592</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17">
+        <v>31</v>
+      </c>
+      <c r="I17" s="9">
+        <v>44593</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" t="s">
+        <v>360</v>
+      </c>
+      <c r="L17" t="s">
+        <v>361</v>
+      </c>
+      <c r="N17" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18">
+        <v>114</v>
+      </c>
+      <c r="I18" s="9">
+        <v>44594</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="K18" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19">
+        <v>35</v>
+      </c>
+      <c r="I19" s="9">
+        <v>44595</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K19" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20">
+        <v>14</v>
+      </c>
+      <c r="I20" s="9">
+        <v>44596</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K20" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21">
+        <v>6</v>
+      </c>
+      <c r="I21" s="9">
+        <v>44597</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22">
+        <v>12</v>
+      </c>
+      <c r="I22" s="9">
+        <v>44598</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>106</v>
+      </c>
+      <c r="I23" s="9">
+        <v>44599</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f>SUM(F3:F23)</f>
+        <v>381</v>
+      </c>
+      <c r="G24">
+        <v>15.8</v>
+      </c>
+      <c r="I24" s="9">
+        <v>44600</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>107</v>
+      </c>
+      <c r="I25" s="9">
+        <v>44601</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>108</v>
+      </c>
+      <c r="I26" s="9">
+        <v>44602</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>109</v>
+      </c>
+      <c r="I27" s="9">
+        <v>44603</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I28" s="9">
+        <v>44604</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I29" s="9">
+        <v>44605</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I30" s="9">
+        <v>44606</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I31" s="9">
+        <v>44607</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I32" s="9">
+        <v>44608</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I33" s="9">
+        <v>44609</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I34" s="9">
+        <v>44610</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I35" s="9">
+        <v>44611</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I36" s="9">
+        <v>44612</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I37" s="9">
+        <v>44613</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D280"/>
+  <sheetViews>
+    <sheetView topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="C129" sqref="C129:D130"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="92" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="B2" s="15">
+        <v>44579</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="15">
+        <v>44579</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="16"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="B5" s="15">
+        <v>44579</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="15">
+        <v>44579</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="15">
+        <v>44579</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="15">
+        <v>44579</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="15">
+        <v>44579</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="15">
+        <v>44579</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="15">
+        <v>44579</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="15">
+        <v>44579</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="15">
+        <v>44579</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="17">
+        <v>44580</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="17">
+        <v>44580</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="17">
+        <v>44580</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="17">
+        <v>44580</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="17">
+        <v>44580</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="17">
+        <v>44580</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="17">
+        <v>44580</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" s="17">
+        <v>44580</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" s="17">
+        <v>44580</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="16"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" s="16"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" s="16"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" s="16"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" s="16"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30" s="16"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="16"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B32" s="16"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" s="16"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B34" s="16"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" s="16"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B36" s="16"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" s="16"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B38" s="16"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B39" s="16"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B40" s="16"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="16"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="B42" s="16"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" s="16"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="16"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="B45" s="16"/>
+      <c r="C45" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" s="16"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" s="16"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B48" s="16"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B49" s="16"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B50" s="16"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" s="16"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B52" s="16"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B53" s="16"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B54" s="16"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B55" s="16"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B56" s="16"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B57" s="16"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B58" s="16"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="8"/>
+      <c r="B59" s="16"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="B60" s="16"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B61" s="16"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B62" s="16"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B63" s="16"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B64" s="16"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="8"/>
+      <c r="B65" s="16"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="B66" s="16"/>
+      <c r="C66" t="s">
+        <v>393</v>
+      </c>
+      <c r="D66" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B67" s="16"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B68" s="16"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B69" s="16"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B70" s="16"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B71" s="16"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B72" s="16"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B73" s="16"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B74" s="16"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B75" s="16"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="8"/>
+      <c r="B76" s="16"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="B77" s="16"/>
+      <c r="C77" t="s">
+        <v>35</v>
+      </c>
+      <c r="D77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B78" s="16"/>
+      <c r="D78" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B79" s="16"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B80" s="16"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B81" s="16"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B82" s="16"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B83" s="16"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B84" s="16"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B85" s="16"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B86" s="16"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B87" s="16"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B88" s="16"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B89" s="16"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B90" s="16"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B91" s="16"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B92" s="16"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B93" s="16"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="8"/>
+      <c r="B94" s="16"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="B95" s="16"/>
+      <c r="C95" t="s">
+        <v>38</v>
+      </c>
+      <c r="D95" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B96" s="16"/>
+      <c r="D96" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B97" s="16"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B98" s="16"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B99" s="16"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B100" s="16"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B101" s="16"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B102" s="16"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B103" s="16"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B104" s="16"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B105" s="16"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B106" s="16"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B107" s="16"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B108" s="16"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B109" s="16"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B110" s="16"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B111" s="16"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B112" s="16"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="8"/>
+      <c r="B113" s="16"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="B114" s="16"/>
+      <c r="C114" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B115" s="16"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B116" s="16"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B117" s="16"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B118" s="16"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B119" s="16"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B120" s="16"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B121" s="16"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B122" s="16"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B123" s="16"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B124" s="16"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B125" s="16"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B126" s="16"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B127" s="16"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="8"/>
+      <c r="B128" s="16"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B129" s="16"/>
+      <c r="C129" t="s">
+        <v>94</v>
+      </c>
+      <c r="D129" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B130" s="16"/>
+      <c r="D130" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B131" s="16"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B132" s="16"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B133" s="16"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B134" s="16"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B135" s="16"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B136" s="16"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B137" s="16"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B138" s="16"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B139" s="16"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B140" s="16"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B141" s="16"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B142" s="16"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B143" s="16"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B144" s="16"/>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B145" s="16"/>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B146" s="16"/>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B147" s="16"/>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B148" s="16"/>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B149" s="16"/>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B150" s="16"/>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B151" s="16"/>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B152" s="16"/>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B153" s="16"/>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B154" s="16"/>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="8"/>
+      <c r="B155" s="16"/>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="B156" s="16"/>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B157" s="16"/>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B158" s="16"/>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B159" s="16"/>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B160" s="16"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B161" s="16"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B162" s="16"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B163" s="16"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B164" s="16"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B165" s="16"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B166" s="16"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="8"/>
+      <c r="B167" s="16"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="B168" s="16"/>
+      <c r="C168" t="s">
+        <v>19</v>
+      </c>
+      <c r="D168" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B169" s="16"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B170" s="16"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B171" s="16"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B172" s="16"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B173" s="16"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B174" s="16"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B175" s="16"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B176" s="16"/>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B177" s="16"/>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B178" s="16"/>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B179" s="16"/>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B180" s="16"/>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B181" s="16"/>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B182" s="16"/>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B183" s="16"/>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="B184" s="16"/>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B185" s="16"/>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B186" s="16"/>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B187" s="16"/>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B188" s="16"/>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B189" s="16"/>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B190" s="16"/>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B191" s="16"/>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B192" s="16"/>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B193" s="16"/>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="8"/>
+      <c r="B194" s="16"/>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="B195" s="16"/>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B196" s="16"/>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="B197" s="16"/>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B198" s="16"/>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B199" s="16"/>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B200" s="16"/>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B201" s="16"/>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B202" s="16"/>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B203" s="16"/>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B204" s="16"/>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B205" s="16"/>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="B206" s="16"/>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B207" s="16"/>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="B208" s="16"/>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B209" s="16"/>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B210" s="16"/>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B211" s="16"/>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B212" s="16"/>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B213" s="16"/>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="B214" s="16"/>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B215" s="16"/>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B216" s="16"/>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B217" s="16"/>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="8"/>
+      <c r="B218" s="16"/>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="B219" s="16"/>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B220" s="16"/>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B221" s="16"/>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="B222" s="16"/>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B223" s="16"/>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="B224" s="16"/>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="B225" s="16"/>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B226" s="16"/>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B227" s="16"/>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="B228" s="16"/>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B229" s="16"/>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B230" s="16"/>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B231" s="16"/>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B232" s="16"/>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="B233" s="16"/>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="B234" s="16"/>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="8"/>
+      <c r="B235" s="16"/>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="B236" s="16"/>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="B237" s="16"/>
+      <c r="C237" t="s">
+        <v>30</v>
+      </c>
+      <c r="D237" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B238" s="16"/>
+      <c r="D238" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="B239" s="16"/>
+      <c r="D239" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="B240" s="16"/>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B241" s="16"/>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="B242" s="16"/>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="B243" s="16"/>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="B244" s="16"/>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B245" s="16"/>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B246" s="16"/>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="B247" s="16"/>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="B248" s="16"/>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B249" s="16"/>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="B250" s="16"/>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="B251" s="16"/>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="B252" s="16"/>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B253" s="16"/>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B254" s="16"/>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B255" s="16"/>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="B256" s="16"/>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B257" s="16"/>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B258" s="16"/>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="B259" s="16"/>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B260" s="16"/>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="B261" s="16"/>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" s="8"/>
+      <c r="B262" s="16"/>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="B263" s="16"/>
+      <c r="C263" t="s">
+        <v>94</v>
+      </c>
+      <c r="D263" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="B264" s="16"/>
+      <c r="D264" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B265" s="16"/>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="B266" s="16"/>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B267" s="16"/>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="B268" s="16"/>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="B269" s="16"/>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="B270" s="16"/>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="B271" s="16"/>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="B272" s="16"/>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="B273" s="16"/>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="B274" s="16"/>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="B275" s="16"/>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="B276" s="16"/>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B277" s="16"/>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="B278" s="16"/>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="B279" s="16"/>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B280" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AVK_DevOps_Plan.xlsx
+++ b/AVK_DevOps_Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="12420" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="28800" windowHeight="12420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="COURSES" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,6 @@
     <sheet name="DB-N" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="404">
   <si>
     <t>LINUX</t>
   </si>
@@ -1210,6 +1209,30 @@
   </si>
   <si>
     <t>ITS ABOUT HOW I UNDERSTAND THE CONCEPTS. JUST NOT TO GO FOR RACE.</t>
+  </si>
+  <si>
+    <t>EACH VIDEO I NEED TO WATCH 3 - 4 TIMES</t>
+  </si>
+  <si>
+    <t>FIRST TIME WATCH THE VIDEO IN FULL. DO NOT TAKE NOTES, SCREENSHOTS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JUST TRY TO UNDERSTAND THE CONCEPT OF THE VIDEO.</t>
+  </si>
+  <si>
+    <t>SECOND TIME FOR EACH SENTENCE OR POINT, TAKE THE NOTES AND SCREENSHOT.</t>
+  </si>
+  <si>
+    <t>THIRD TIME WATCH IT IN FULL AGAIN TO CHECK IF I UNDERSTAND ALL THE CONCEPT.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHECK IF I MISSED ANY THING. </t>
+  </si>
+  <si>
+    <t>STILL NOT UNDERSTOOD, WATCH FOR 4TH TIME.</t>
+  </si>
+  <si>
+    <t>1.+13.50</t>
   </si>
 </sst>
 </file>
@@ -1284,7 +1307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1312,13 +1335,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2312,10 +2338,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2325,7 +2351,7 @@
     <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>83</v>
       </c>
@@ -2336,7 +2362,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I2" s="9">
         <v>44578</v>
       </c>
@@ -2353,7 +2379,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2379,7 +2405,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -2411,7 +2437,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>96</v>
       </c>
@@ -2443,7 +2469,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2478,7 +2504,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2501,7 +2527,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2524,7 +2550,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -2550,7 +2576,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>101</v>
       </c>
@@ -2573,7 +2599,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>93</v>
       </c>
@@ -2599,7 +2625,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -2625,7 +2651,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>102</v>
       </c>
@@ -2642,7 +2668,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>101</v>
       </c>
@@ -2655,8 +2681,11 @@
       <c r="J14" s="10" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P14" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -2672,8 +2701,11 @@
       <c r="J15" s="10" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P15" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -2692,8 +2724,11 @@
       <c r="K16" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q16" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>101</v>
       </c>
@@ -2715,8 +2750,11 @@
       <c r="N17" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P17" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>94</v>
       </c>
@@ -2735,8 +2773,11 @@
       <c r="K18" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P18" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>101</v>
       </c>
@@ -2752,8 +2793,11 @@
       <c r="K19" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q19" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -2772,8 +2816,11 @@
       <c r="K20" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P20" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>104</v>
       </c>
@@ -2787,7 +2834,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -2804,7 +2851,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>106</v>
       </c>
@@ -2815,7 +2862,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F24">
         <f>SUM(F3:F23)</f>
         <v>381</v>
@@ -2830,7 +2877,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>107</v>
       </c>
@@ -2841,7 +2888,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -2852,7 +2899,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>109</v>
       </c>
@@ -2863,7 +2910,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I28" s="9">
         <v>44604</v>
       </c>
@@ -2871,7 +2918,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I29" s="9">
         <v>44605</v>
       </c>
@@ -2879,7 +2926,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I30" s="9">
         <v>44606</v>
       </c>
@@ -2887,7 +2934,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I31" s="9">
         <v>44607</v>
       </c>
@@ -2895,7 +2942,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I32" s="9">
         <v>44608</v>
       </c>
@@ -2950,10 +2997,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D280"/>
+  <dimension ref="A1:M280"/>
   <sheetViews>
-    <sheetView topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129:D130"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2971,178 +3018,138 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="B2" s="15">
-        <v>44579</v>
-      </c>
+      <c r="B2" s="17"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="15">
-        <v>44579</v>
-      </c>
+      <c r="B3" s="17"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="18"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="B5" s="15">
-        <v>44579</v>
-      </c>
+      <c r="B5" s="17"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="15">
-        <v>44579</v>
-      </c>
+      <c r="B6" s="17"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="15">
-        <v>44579</v>
-      </c>
+      <c r="B7" s="17"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="15">
-        <v>44579</v>
-      </c>
+      <c r="B8" s="17"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="15">
-        <v>44579</v>
-      </c>
+      <c r="B9" s="17"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="15">
-        <v>44579</v>
-      </c>
+      <c r="B10" s="17"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B11" s="15">
-        <v>44579</v>
-      </c>
+      <c r="B11" s="17"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="15">
-        <v>44579</v>
-      </c>
+      <c r="B12" s="17"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="B13" s="15">
-        <v>44579</v>
-      </c>
+      <c r="B13" s="17"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B14" s="17">
-        <v>44580</v>
-      </c>
+      <c r="B14" s="16"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B15" s="17">
-        <v>44580</v>
-      </c>
+      <c r="B15" s="16"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B16" s="17">
-        <v>44580</v>
-      </c>
+      <c r="B16" s="16"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="17">
-        <v>44580</v>
-      </c>
+      <c r="B17" s="16"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B18" s="17">
-        <v>44580</v>
-      </c>
+      <c r="B18" s="16"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B19" s="17">
-        <v>44580</v>
-      </c>
+      <c r="B19" s="16"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B20" s="17">
-        <v>44580</v>
-      </c>
+      <c r="B20" s="16"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B21" s="17">
-        <v>44580</v>
-      </c>
+      <c r="B21" s="16"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B22" s="17">
-        <v>44580</v>
-      </c>
+      <c r="B22" s="16"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
-      <c r="B23" s="16"/>
+      <c r="B23" s="15"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="B24" s="16"/>
+      <c r="B24" s="15"/>
       <c r="C24" t="s">
         <v>100</v>
       </c>
@@ -3151,7 +3158,7 @@
       <c r="A25" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B25" s="16"/>
+      <c r="B25" s="15"/>
       <c r="C25" t="s">
         <v>101</v>
       </c>
@@ -3160,117 +3167,117 @@
       <c r="A26" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B26" s="16"/>
+      <c r="B26" s="15"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B27" s="16"/>
+      <c r="B27" s="15"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B28" s="16"/>
+      <c r="B28" s="15"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B29" s="16"/>
+      <c r="B29" s="15"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B30" s="16"/>
+      <c r="B30" s="15"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B31" s="16"/>
+      <c r="B31" s="15"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B32" s="16"/>
+      <c r="B32" s="15"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B33" s="16"/>
+      <c r="B33" s="15"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B34" s="16"/>
+      <c r="B34" s="15"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B35" s="16"/>
+      <c r="B35" s="15"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B36" s="16"/>
+      <c r="B36" s="15"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B37" s="16"/>
+      <c r="B37" s="15"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B38" s="16"/>
+      <c r="B38" s="15"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B39" s="16"/>
+      <c r="B39" s="15"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B40" s="16"/>
+      <c r="B40" s="15"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
-      <c r="B41" s="16"/>
+      <c r="B41" s="15"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="B42" s="16"/>
+      <c r="B42" s="15"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B43" s="16"/>
+      <c r="B43" s="15"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
-      <c r="B44" s="16"/>
+      <c r="B44" s="15"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="B45" s="16"/>
+      <c r="B45" s="15"/>
       <c r="C45" t="s">
         <v>93</v>
       </c>
@@ -3282,123 +3289,123 @@
       <c r="A46" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B46" s="16"/>
+      <c r="B46" s="15"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B47" s="16"/>
+      <c r="B47" s="15"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B48" s="16"/>
+      <c r="B48" s="15"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B49" s="16"/>
+      <c r="B49" s="15"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B50" s="16"/>
+      <c r="B50" s="15"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B51" s="16"/>
+      <c r="B51" s="15"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B52" s="16"/>
+      <c r="B52" s="15"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B53" s="16"/>
+      <c r="B53" s="15"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B54" s="16"/>
+      <c r="B54" s="15"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B55" s="16"/>
+      <c r="B55" s="15"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B56" s="16"/>
+      <c r="B56" s="15"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B57" s="16"/>
+      <c r="B57" s="15"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B58" s="16"/>
+      <c r="B58" s="15"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
-      <c r="B59" s="16"/>
+      <c r="B59" s="15"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="B60" s="16"/>
+      <c r="B60" s="15"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B61" s="16"/>
+      <c r="B61" s="15"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B62" s="16"/>
+      <c r="B62" s="15"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B63" s="16"/>
+      <c r="B63" s="15"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B64" s="16"/>
+      <c r="B64" s="15"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
-      <c r="B65" s="16"/>
+      <c r="B65" s="15"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="B66" s="16"/>
+      <c r="B66" s="15"/>
       <c r="C66" t="s">
         <v>393</v>
       </c>
@@ -3410,65 +3417,65 @@
       <c r="A67" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B67" s="16"/>
+      <c r="B67" s="15"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B68" s="16"/>
+      <c r="B68" s="15"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B69" s="16"/>
+      <c r="B69" s="15"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B70" s="16"/>
+      <c r="B70" s="15"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B71" s="16"/>
+      <c r="B71" s="15"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B72" s="16"/>
+      <c r="B72" s="15"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B73" s="16"/>
+      <c r="B73" s="15"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B74" s="16"/>
+      <c r="B74" s="15"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B75" s="16"/>
+      <c r="B75" s="15"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
-      <c r="B76" s="16"/>
+      <c r="B76" s="15"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="B77" s="16"/>
+      <c r="B77" s="15"/>
       <c r="C77" t="s">
         <v>35</v>
       </c>
@@ -3480,7 +3487,7 @@
       <c r="A78" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B78" s="16"/>
+      <c r="B78" s="15"/>
       <c r="D78" t="s">
         <v>101</v>
       </c>
@@ -3489,101 +3496,101 @@
       <c r="A79" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B79" s="16"/>
+      <c r="B79" s="15"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B80" s="16"/>
+      <c r="B80" s="15"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B81" s="16"/>
+      <c r="B81" s="15"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B82" s="16"/>
+      <c r="B82" s="15"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B83" s="16"/>
+      <c r="B83" s="15"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B84" s="16"/>
+      <c r="B84" s="15"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B85" s="16"/>
+      <c r="B85" s="15"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B86" s="16"/>
+      <c r="B86" s="15"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B87" s="16"/>
+      <c r="B87" s="15"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="B88" s="16"/>
+      <c r="B88" s="15"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="B89" s="16"/>
+      <c r="B89" s="15"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="B90" s="16"/>
+      <c r="B90" s="15"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B91" s="16"/>
+      <c r="B91" s="15"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="B92" s="16"/>
+      <c r="B92" s="15"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B93" s="16"/>
+      <c r="B93" s="15"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
-      <c r="B94" s="16"/>
+      <c r="B94" s="15"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="B95" s="16"/>
+      <c r="B95" s="15"/>
       <c r="C95" t="s">
         <v>38</v>
       </c>
@@ -3595,7 +3602,7 @@
       <c r="A96" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="B96" s="16"/>
+      <c r="B96" s="15"/>
       <c r="D96" t="s">
         <v>104</v>
       </c>
@@ -3604,107 +3611,107 @@
       <c r="A97" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="B97" s="16"/>
+      <c r="B97" s="15"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B98" s="16"/>
+      <c r="B98" s="15"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B99" s="16"/>
+      <c r="B99" s="15"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="B100" s="16"/>
+      <c r="B100" s="15"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="B101" s="16"/>
+      <c r="B101" s="15"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="B102" s="16"/>
+      <c r="B102" s="15"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="B103" s="16"/>
+      <c r="B103" s="15"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B104" s="16"/>
+      <c r="B104" s="15"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B105" s="16"/>
+      <c r="B105" s="15"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="B106" s="16"/>
+      <c r="B106" s="15"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B107" s="16"/>
+      <c r="B107" s="15"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="B108" s="16"/>
+      <c r="B108" s="15"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="B109" s="16"/>
+      <c r="B109" s="15"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="B110" s="16"/>
+      <c r="B110" s="15"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B111" s="16"/>
+      <c r="B111" s="15"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="B112" s="16"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B112" s="15"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
-      <c r="B113" s="16"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B113" s="15"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="B114" s="16"/>
+      <c r="B114" s="15"/>
       <c r="C114" t="s">
         <v>11</v>
       </c>
@@ -3712,93 +3719,96 @@
         <v>98</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="B115" s="16"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B115" s="15"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="B116" s="16"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B116" s="15"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B117" s="16"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B117" s="15"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="B118" s="16"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B118" s="15"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B119" s="16"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B119" s="15"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B120" s="16"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B120" s="15"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="B121" s="16"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B121" s="15"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B122" s="16"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B122" s="15"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="B123" s="16"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B123" s="15"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="B124" s="16"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B124" s="15"/>
+      <c r="H124" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="B125" s="16"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B125" s="15"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="B126" s="16"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B126" s="15"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B127" s="16"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B127" s="15"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="8"/>
-      <c r="B128" s="16"/>
+      <c r="B128" s="15"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="B129" s="16"/>
+      <c r="B129" s="15"/>
       <c r="C129" t="s">
         <v>94</v>
       </c>
@@ -3810,7 +3820,7 @@
       <c r="A130" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="B130" s="16"/>
+      <c r="B130" s="15"/>
       <c r="D130" t="s">
         <v>101</v>
       </c>
@@ -3819,225 +3829,225 @@
       <c r="A131" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="B131" s="16"/>
+      <c r="B131" s="15"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="B132" s="16"/>
+      <c r="B132" s="15"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="B133" s="16"/>
+      <c r="B133" s="15"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="B134" s="16"/>
+      <c r="B134" s="15"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="B135" s="16"/>
+      <c r="B135" s="15"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="B136" s="16"/>
+      <c r="B136" s="15"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="B137" s="16"/>
+      <c r="B137" s="15"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="B138" s="16"/>
+      <c r="B138" s="15"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="B139" s="16"/>
+      <c r="B139" s="15"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="B140" s="16"/>
+      <c r="B140" s="15"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="B141" s="16"/>
+      <c r="B141" s="15"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="B142" s="16"/>
+      <c r="B142" s="15"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="B143" s="16"/>
+      <c r="B143" s="15"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B144" s="16"/>
+      <c r="B144" s="15"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="B145" s="16"/>
+      <c r="B145" s="15"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="B146" s="16"/>
+      <c r="B146" s="15"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="B147" s="16"/>
+      <c r="B147" s="15"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="B148" s="16"/>
+      <c r="B148" s="15"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="B149" s="16"/>
+      <c r="B149" s="15"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="B150" s="16"/>
+      <c r="B150" s="15"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="B151" s="16"/>
+      <c r="B151" s="15"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="B152" s="16"/>
+      <c r="B152" s="15"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="B153" s="16"/>
+      <c r="B153" s="15"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="B154" s="16"/>
+      <c r="B154" s="15"/>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="8"/>
-      <c r="B155" s="16"/>
+      <c r="B155" s="15"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="B156" s="16"/>
+      <c r="B156" s="15"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="B157" s="16"/>
+      <c r="B157" s="15"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="B158" s="16"/>
+      <c r="B158" s="15"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="B159" s="16"/>
+      <c r="B159" s="15"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="B160" s="16"/>
+      <c r="B160" s="15"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="B161" s="16"/>
+      <c r="B161" s="15"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="B162" s="16"/>
+      <c r="B162" s="15"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="B163" s="16"/>
+      <c r="B163" s="15"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B164" s="16"/>
+      <c r="B164" s="15"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="B165" s="16"/>
+      <c r="B165" s="15"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="B166" s="16"/>
+      <c r="B166" s="15"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="8"/>
-      <c r="B167" s="16"/>
+      <c r="B167" s="15"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="B168" s="16"/>
+      <c r="B168" s="15"/>
       <c r="C168" t="s">
         <v>19</v>
       </c>
@@ -4049,409 +4059,412 @@
       <c r="A169" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="B169" s="16"/>
+      <c r="B169" s="15"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="B170" s="16"/>
+      <c r="B170" s="15"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="B171" s="16"/>
+      <c r="B171" s="15"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="B172" s="16"/>
+      <c r="B172" s="15"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="B173" s="16"/>
+      <c r="B173" s="15"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="B174" s="16"/>
+      <c r="B174" s="15"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="B175" s="16"/>
+      <c r="B175" s="15"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="B176" s="16"/>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B176" s="15"/>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="B177" s="16"/>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B177" s="15"/>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="B178" s="16"/>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B178" s="15"/>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="B179" s="16"/>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B179" s="15"/>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="B180" s="16"/>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B180" s="15"/>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="B181" s="16"/>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B181" s="15"/>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="B182" s="16"/>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B182" s="15"/>
+      <c r="M182">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B183" s="16"/>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B183" s="15"/>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="B184" s="16"/>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B184" s="15"/>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B185" s="16"/>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B185" s="15"/>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="B186" s="16"/>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B186" s="15"/>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="B187" s="16"/>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B187" s="15"/>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="B188" s="16"/>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B188" s="15"/>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="B189" s="16"/>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B189" s="15"/>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="B190" s="16"/>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B190" s="15"/>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="B191" s="16"/>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B191" s="15"/>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="B192" s="16"/>
+      <c r="B192" s="15"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="B193" s="16"/>
+      <c r="B193" s="15"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="8"/>
-      <c r="B194" s="16"/>
+      <c r="B194" s="15"/>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="B195" s="16"/>
+      <c r="B195" s="15"/>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="B196" s="16"/>
+      <c r="B196" s="15"/>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="B197" s="16"/>
+      <c r="B197" s="15"/>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="B198" s="16"/>
+      <c r="B198" s="15"/>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="B199" s="16"/>
+      <c r="B199" s="15"/>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="B200" s="16"/>
+      <c r="B200" s="15"/>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="B201" s="16"/>
+      <c r="B201" s="15"/>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="B202" s="16"/>
+      <c r="B202" s="15"/>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="B203" s="16"/>
+      <c r="B203" s="15"/>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="B204" s="16"/>
+      <c r="B204" s="15"/>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B205" s="16"/>
+      <c r="B205" s="15"/>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="B206" s="16"/>
+      <c r="B206" s="15"/>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="B207" s="16"/>
+      <c r="B207" s="15"/>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="B208" s="16"/>
+      <c r="B208" s="15"/>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="B209" s="16"/>
+      <c r="B209" s="15"/>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="B210" s="16"/>
+      <c r="B210" s="15"/>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="B211" s="16"/>
+      <c r="B211" s="15"/>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="B212" s="16"/>
+      <c r="B212" s="15"/>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="B213" s="16"/>
+      <c r="B213" s="15"/>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="B214" s="16"/>
+      <c r="B214" s="15"/>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="B215" s="16"/>
+      <c r="B215" s="15"/>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="B216" s="16"/>
+      <c r="B216" s="15"/>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="B217" s="16"/>
+      <c r="B217" s="15"/>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="8"/>
-      <c r="B218" s="16"/>
+      <c r="B218" s="15"/>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="B219" s="16"/>
+      <c r="B219" s="15"/>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="B220" s="16"/>
+      <c r="B220" s="15"/>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="B221" s="16"/>
+      <c r="B221" s="15"/>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B222" s="16"/>
+      <c r="B222" s="15"/>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="B223" s="16"/>
+      <c r="B223" s="15"/>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="B224" s="16"/>
+      <c r="B224" s="15"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="B225" s="16"/>
+      <c r="B225" s="15"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="B226" s="16"/>
+      <c r="B226" s="15"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="B227" s="16"/>
+      <c r="B227" s="15"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="B228" s="16"/>
+      <c r="B228" s="15"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="B229" s="16"/>
+      <c r="B229" s="15"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="B230" s="16"/>
+      <c r="B230" s="15"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="B231" s="16"/>
+      <c r="B231" s="15"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="B232" s="16"/>
+      <c r="B232" s="15"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="B233" s="16"/>
+      <c r="B233" s="15"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="B234" s="16"/>
+      <c r="B234" s="15"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="8"/>
-      <c r="B235" s="16"/>
+      <c r="B235" s="15"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="B236" s="16"/>
+      <c r="B236" s="15"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="B237" s="16"/>
+      <c r="B237" s="15"/>
       <c r="C237" t="s">
         <v>30</v>
       </c>
@@ -4463,7 +4476,7 @@
       <c r="A238" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="B238" s="16"/>
+      <c r="B238" s="15"/>
       <c r="D238" t="s">
         <v>102</v>
       </c>
@@ -4472,7 +4485,7 @@
       <c r="A239" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="B239" s="16"/>
+      <c r="B239" s="15"/>
       <c r="D239" t="s">
         <v>101</v>
       </c>
@@ -4481,143 +4494,143 @@
       <c r="A240" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="B240" s="16"/>
+      <c r="B240" s="15"/>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="B241" s="16"/>
+      <c r="B241" s="15"/>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="B242" s="16"/>
+      <c r="B242" s="15"/>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="B243" s="16"/>
+      <c r="B243" s="15"/>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="B244" s="16"/>
+      <c r="B244" s="15"/>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="B245" s="16"/>
+      <c r="B245" s="15"/>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B246" s="16"/>
+      <c r="B246" s="15"/>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="B247" s="16"/>
+      <c r="B247" s="15"/>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="B248" s="16"/>
+      <c r="B248" s="15"/>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="B249" s="16"/>
+      <c r="B249" s="15"/>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="B250" s="16"/>
+      <c r="B250" s="15"/>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="B251" s="16"/>
+      <c r="B251" s="15"/>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="B252" s="16"/>
+      <c r="B252" s="15"/>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="B253" s="16"/>
+      <c r="B253" s="15"/>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="B254" s="16"/>
+      <c r="B254" s="15"/>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="B255" s="16"/>
+      <c r="B255" s="15"/>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="B256" s="16"/>
+      <c r="B256" s="15"/>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="B257" s="16"/>
+      <c r="B257" s="15"/>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="B258" s="16"/>
+      <c r="B258" s="15"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="B259" s="16"/>
+      <c r="B259" s="15"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="B260" s="16"/>
+      <c r="B260" s="15"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="B261" s="16"/>
+      <c r="B261" s="15"/>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="8"/>
-      <c r="B262" s="16"/>
+      <c r="B262" s="15"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="B263" s="16"/>
+      <c r="B263" s="15"/>
       <c r="C263" t="s">
         <v>94</v>
       </c>
@@ -4629,7 +4642,7 @@
       <c r="A264" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="B264" s="16"/>
+      <c r="B264" s="15"/>
       <c r="D264" t="s">
         <v>101</v>
       </c>
@@ -4638,97 +4651,97 @@
       <c r="A265" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="B265" s="16"/>
+      <c r="B265" s="15"/>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="B266" s="16"/>
+      <c r="B266" s="15"/>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B267" s="16"/>
+      <c r="B267" s="15"/>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="B268" s="16"/>
+      <c r="B268" s="15"/>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="B269" s="16"/>
+      <c r="B269" s="15"/>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="B270" s="16"/>
+      <c r="B270" s="15"/>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="B271" s="16"/>
+      <c r="B271" s="15"/>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="B272" s="16"/>
+      <c r="B272" s="15"/>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="B273" s="16"/>
+      <c r="B273" s="15"/>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="B274" s="16"/>
+      <c r="B274" s="15"/>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="B275" s="16"/>
+      <c r="B275" s="15"/>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="B276" s="16"/>
+      <c r="B276" s="15"/>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="B277" s="16"/>
+      <c r="B277" s="15"/>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="B278" s="16"/>
+      <c r="B278" s="15"/>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="B279" s="16"/>
+      <c r="B279" s="15"/>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="B280" s="16"/>
+      <c r="B280" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AVK_DevOps_Plan.xlsx
+++ b/AVK_DevOps_Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="28800" windowHeight="12420" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="28800" windowHeight="12420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="COURSES" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="428">
   <si>
     <t>LINUX</t>
   </si>
@@ -1233,6 +1233,78 @@
   </si>
   <si>
     <t>1.+13.50</t>
+  </si>
+  <si>
+    <t>TYPICALLY HOW WOULD MY INTERVIEW BE LIKE</t>
+  </si>
+  <si>
+    <t>HE MAY ASK ABOUT MY CURRENT PROJECT.</t>
+  </si>
+  <si>
+    <t>I WILL BE TELLING ABOUT KUBERNETES ADMIN RELATED RESPONSIBILITIES.</t>
+  </si>
+  <si>
+    <t>I WILL BE TELLING ABOUT THE PREVIOUS PROJECTS I HAVE INVOLVED.</t>
+  </si>
+  <si>
+    <t>WILL ASK HIM TO REFER HIM TO MY GIT HUB</t>
+  </si>
+  <si>
+    <t>BASED ON MY REPLY HE MAY ASK SOME K8S RELATED QUESTIONS, HELM RELATED QUESTIONS,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONITORING RELATED QUESTIONS, </t>
+  </si>
+  <si>
+    <t>JENKINS INTEGRATIONS</t>
+  </si>
+  <si>
+    <t>AND MAY ASK ABOUT TERRAFORM, AWS, ANSIBLE AND GIT.</t>
+  </si>
+  <si>
+    <t>SO MY GOAL IS TO PASS THE INTERVIEW.</t>
+  </si>
+  <si>
+    <t>CONCENTRATE MORE ON THE TOPICS THAT WILL BE ASKED BY THE INTERVIEWER.</t>
+  </si>
+  <si>
+    <t>WHILE LOOKING AT ANY VIDEO, ANALYSE FIRST HOW IMPORTANT IT IS FOR INTERVIEW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AND MAKE A NOTE IN ONE NOTE. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BASED ON THE ANALYSIS, FOLLOW THE 4 TIMES VIEWING PRINCIPAL. </t>
+  </si>
+  <si>
+    <t>UDEMY DEVOPS IMRANTELI</t>
+  </si>
+  <si>
+    <t>BASH SCRIPTING.</t>
+  </si>
+  <si>
+    <t>NOT ABLE TO UNDERSTAND BASH SCRIPTING</t>
+  </si>
+  <si>
+    <t>AT FIRST I NEED TO KNOW THE USECASES IN DEVOPS LIFE CYCLE.</t>
+  </si>
+  <si>
+    <t>WHAT ALTERNATIVES CAN BE USED? MAY BE PYTHON &amp; ANSIBLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THEN IF NEEDED LEARN BASH SCRIPT IN DEEP BY TAKING UDEMY COURSE. </t>
+  </si>
+  <si>
+    <t>AS OF NOW, DO NOT WASTE TIME FOR THIS BASH SCRIPTING.</t>
+  </si>
+  <si>
+    <t>LEARN OTHER TOOLS NICELY.</t>
+  </si>
+  <si>
+    <t>18 - Linux GitLab Exercises</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REVIEW: NEED SOME PRACTICE IN WRITING BASH SCRIPTS. </t>
   </si>
 </sst>
 </file>
@@ -1248,7 +1320,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1276,6 +1348,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1307,7 +1385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1338,15 +1416,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2341,7 +2418,7 @@
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2850,6 +2927,9 @@
       <c r="J22" s="10" t="s">
         <v>92</v>
       </c>
+      <c r="P22" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
@@ -2860,6 +2940,9 @@
       </c>
       <c r="J23" s="10" t="s">
         <v>86</v>
+      </c>
+      <c r="P23" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -2876,6 +2959,9 @@
       <c r="J24" s="10" t="s">
         <v>87</v>
       </c>
+      <c r="P24" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -2887,6 +2973,9 @@
       <c r="J25" s="10" t="s">
         <v>88</v>
       </c>
+      <c r="P25" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -2898,6 +2987,9 @@
       <c r="J26" s="12" t="s">
         <v>89</v>
       </c>
+      <c r="P26" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -2909,6 +3001,9 @@
       <c r="J27" s="12" t="s">
         <v>90</v>
       </c>
+      <c r="P27" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I28" s="9">
@@ -2917,6 +3012,9 @@
       <c r="J28" s="12" t="s">
         <v>91</v>
       </c>
+      <c r="P28" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I29" s="9">
@@ -2925,6 +3023,9 @@
       <c r="J29" s="12" t="s">
         <v>92</v>
       </c>
+      <c r="P29" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I30" s="9">
@@ -2933,6 +3034,9 @@
       <c r="J30" s="12" t="s">
         <v>86</v>
       </c>
+      <c r="P30" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I31" s="9">
@@ -2949,40 +3053,55 @@
       <c r="J32" s="12" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="33" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="P32" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="33" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I33" s="9">
         <v>44609</v>
       </c>
       <c r="J33" s="12" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="34" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="P33" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="34" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I34" s="9">
         <v>44610</v>
       </c>
       <c r="J34" s="12" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="35" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="P34" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="35" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I35" s="9">
         <v>44611</v>
       </c>
       <c r="J35" s="12" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="36" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="P35" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="36" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I36" s="9">
         <v>44612</v>
       </c>
       <c r="J36" s="12" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="37" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="P36" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="37" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I37" s="9">
         <v>44613</v>
       </c>
@@ -2997,10 +3116,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M280"/>
+  <dimension ref="A1:M281"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3009,7 +3128,7 @@
     <col min="2" max="2" width="18.140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>356</v>
       </c>
@@ -3017,1731 +3136,1806 @@
         <v>357</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="B2" s="17"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="B2" s="17">
+        <v>44580</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="17"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="17">
+        <v>44580</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
-      <c r="B4" s="18"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="B4" s="16"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="B5" s="17"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="B5" s="17">
+        <v>44580</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="17"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="B6" s="17">
+        <v>44580</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="17"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="B7" s="17">
+        <v>44580</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="17"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="B8" s="17">
+        <v>44580</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="17"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="B9" s="17">
+        <v>44580</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="17"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="B10" s="17">
+        <v>44580</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B11" s="17"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="B11" s="17">
+        <v>44580</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="17"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="B12" s="17">
+        <v>44580</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B13" s="17"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="B13" s="17">
+        <v>44580</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="B14" s="16"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="B14" s="17">
+        <v>44580</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B15" s="16"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="B15" s="17">
+        <v>44580</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B16" s="16"/>
+      <c r="B16" s="17">
+        <v>44580</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="16"/>
+      <c r="B17" s="17">
+        <v>44581</v>
+      </c>
+      <c r="C17" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="B18" s="16"/>
+      <c r="B18" s="17">
+        <v>44581</v>
+      </c>
+      <c r="C18" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B19" s="16"/>
+      <c r="B19" s="17">
+        <v>44581</v>
+      </c>
+      <c r="C19" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B20" s="16"/>
+      <c r="B20" s="17">
+        <v>44581</v>
+      </c>
+      <c r="C20" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B21" s="16"/>
+      <c r="B21" s="17">
+        <v>44581</v>
+      </c>
+      <c r="C21" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="B22" s="16"/>
+      <c r="B22" s="17">
+        <v>44581</v>
+      </c>
+      <c r="C22" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="15"/>
+      <c r="A23" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="B23" s="17">
+        <v>44581</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>378</v>
-      </c>
+      <c r="A24" s="8"/>
       <c r="B24" s="15"/>
-      <c r="C24" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>128</v>
+        <v>378</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B26" s="15"/>
+      <c r="C26" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B27" s="15"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B28" s="15"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B29" s="15"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B30" s="15"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B31" s="15"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B32" s="15"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B33" s="15"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B34" s="15"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B35" s="15"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B36" s="15"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B37" s="15"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B38" s="15"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B39" s="15"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B40" s="15"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B40" s="15"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
       <c r="B41" s="15"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
-        <v>379</v>
-      </c>
+      <c r="A42" s="8"/>
       <c r="B42" s="15"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="B43" s="15"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B43" s="15"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
       <c r="B44" s="15"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>380</v>
-      </c>
+      <c r="A45" s="8"/>
       <c r="B45" s="15"/>
-      <c r="C45" t="s">
-        <v>93</v>
-      </c>
-      <c r="D45" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>145</v>
+        <v>380</v>
       </c>
       <c r="B46" s="15"/>
+      <c r="C46" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B47" s="15"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B48" s="15"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B49" s="15"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B50" s="15"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B51" s="15"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B52" s="15"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B53" s="15"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B54" s="15"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B55" s="15"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B56" s="15"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B57" s="15"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B58" s="15"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B58" s="15"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="8"/>
       <c r="B59" s="15"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
-        <v>381</v>
-      </c>
+      <c r="A60" s="8"/>
       <c r="B60" s="15"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>158</v>
+        <v>381</v>
       </c>
       <c r="B61" s="15"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B62" s="15"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B63" s="15"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B64" s="15"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B64" s="15"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
       <c r="B65" s="15"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
-        <v>382</v>
-      </c>
+      <c r="A66" s="8"/>
       <c r="B66" s="15"/>
-      <c r="C66" t="s">
-        <v>393</v>
-      </c>
-      <c r="D66" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>162</v>
+        <v>382</v>
       </c>
       <c r="B67" s="15"/>
+      <c r="C67" t="s">
+        <v>393</v>
+      </c>
+      <c r="D67" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B68" s="15"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B69" s="15"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B70" s="15"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B71" s="15"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B72" s="15"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B73" s="15"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B74" s="15"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B75" s="15"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B75" s="15"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="8"/>
       <c r="B76" s="15"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
-        <v>383</v>
-      </c>
+      <c r="A77" s="8"/>
       <c r="B77" s="15"/>
-      <c r="C77" t="s">
-        <v>35</v>
-      </c>
-      <c r="D77" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>171</v>
+        <v>383</v>
       </c>
       <c r="B78" s="15"/>
+      <c r="C78" t="s">
+        <v>35</v>
+      </c>
       <c r="D78" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B79" s="15"/>
+      <c r="D79" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B80" s="15"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B81" s="15"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B82" s="15"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B83" s="15"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B84" s="15"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B85" s="15"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B86" s="15"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B87" s="15"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B88" s="15"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B89" s="15"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B90" s="15"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B91" s="15"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B92" s="15"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B93" s="15"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B93" s="15"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="8"/>
       <c r="B94" s="15"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="8" t="s">
-        <v>384</v>
-      </c>
+      <c r="A95" s="8"/>
       <c r="B95" s="15"/>
-      <c r="C95" t="s">
-        <v>38</v>
-      </c>
-      <c r="D95" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="B96" s="15"/>
+      <c r="C96" t="s">
+        <v>38</v>
+      </c>
+      <c r="D96" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="B96" s="15"/>
-      <c r="D96" t="s">
+      <c r="B97" s="15"/>
+      <c r="D97" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="8" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="B97" s="15"/>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="8" t="s">
+      <c r="B98" s="15"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B98" s="15"/>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="8" t="s">
+      <c r="B99" s="15"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B99" s="15"/>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="8" t="s">
+      <c r="B100" s="15"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="B100" s="15"/>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="8" t="s">
+      <c r="B101" s="15"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="B101" s="15"/>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="8" t="s">
+      <c r="B102" s="15"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="B102" s="15"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="8" t="s">
+      <c r="B103" s="15"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="B103" s="15"/>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="8" t="s">
+      <c r="B104" s="15"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B104" s="15"/>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="8" t="s">
+      <c r="B105" s="15"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B105" s="15"/>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="8" t="s">
+      <c r="B106" s="15"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="B106" s="15"/>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="8" t="s">
+      <c r="B107" s="15"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B107" s="15"/>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="8" t="s">
+      <c r="B108" s="15"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="B108" s="15"/>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="B109" s="15"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="B109" s="15"/>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="8" t="s">
+      <c r="B110" s="15"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="B110" s="15"/>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="8" t="s">
+      <c r="B111" s="15"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B111" s="15"/>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="8" t="s">
+      <c r="B112" s="15"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="B112" s="15"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="8"/>
       <c r="B113" s="15"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="8" t="s">
-        <v>385</v>
-      </c>
+      <c r="A114" s="8"/>
       <c r="B114" s="15"/>
-      <c r="C114" t="s">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
-        <v>204</v>
+        <v>385</v>
       </c>
       <c r="B115" s="15"/>
+      <c r="C115" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B116" s="15"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B117" s="15"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B118" s="15"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B119" s="15"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B120" s="15"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B121" s="15"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B122" s="15"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B123" s="15"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B124" s="15"/>
-      <c r="H124" t="s">
-        <v>403</v>
-      </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B125" s="15"/>
+      <c r="H125" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B126" s="15"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B127" s="15"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B127" s="15"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="8"/>
       <c r="B128" s="15"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="8" t="s">
-        <v>386</v>
-      </c>
+      <c r="A129" s="8"/>
       <c r="B129" s="15"/>
-      <c r="C129" t="s">
-        <v>94</v>
-      </c>
-      <c r="D129" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
-        <v>217</v>
+        <v>386</v>
       </c>
       <c r="B130" s="15"/>
+      <c r="C130" t="s">
+        <v>94</v>
+      </c>
       <c r="D130" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B131" s="15"/>
+      <c r="D131" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B132" s="15"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B133" s="15"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B134" s="15"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B135" s="15"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B136" s="15"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B137" s="15"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B138" s="15"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B139" s="15"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B140" s="15"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B141" s="15"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B142" s="15"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B143" s="15"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B144" s="15"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B145" s="15"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B146" s="15"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B147" s="15"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B148" s="15"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B149" s="15"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B150" s="15"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B151" s="15"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B152" s="15"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B153" s="15"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B154" s="15"/>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="B154" s="15"/>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="8"/>
       <c r="B155" s="15"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="8" t="s">
-        <v>387</v>
-      </c>
+      <c r="A156" s="8"/>
       <c r="B156" s="15"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="8" t="s">
-        <v>242</v>
+        <v>387</v>
       </c>
       <c r="B157" s="15"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B158" s="15"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B159" s="15"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B160" s="15"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B161" s="15"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B162" s="15"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B163" s="15"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B164" s="15"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B165" s="15"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B166" s="15"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="B166" s="15"/>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="8"/>
       <c r="B167" s="15"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="8" t="s">
-        <v>388</v>
-      </c>
+      <c r="A168" s="8"/>
       <c r="B168" s="15"/>
-      <c r="C168" t="s">
-        <v>19</v>
-      </c>
-      <c r="D168" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="8" t="s">
-        <v>252</v>
+        <v>388</v>
       </c>
       <c r="B169" s="15"/>
+      <c r="C169" t="s">
+        <v>19</v>
+      </c>
+      <c r="D169" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B170" s="15"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B171" s="15"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B172" s="15"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B173" s="15"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B174" s="15"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B175" s="15"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B176" s="15"/>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B177" s="15"/>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B178" s="15"/>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B179" s="15"/>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B180" s="15"/>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B181" s="15"/>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B182" s="15"/>
-      <c r="M182">
-        <v>10</v>
-      </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B183" s="15"/>
+      <c r="M183">
+        <v>10</v>
+      </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B184" s="15"/>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B185" s="15"/>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B186" s="15"/>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B187" s="15"/>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B188" s="15"/>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B189" s="15"/>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B190" s="15"/>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B191" s="15"/>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B192" s="15"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B193" s="15"/>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="B193" s="15"/>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="8"/>
       <c r="B194" s="15"/>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="8" t="s">
-        <v>389</v>
-      </c>
+      <c r="A195" s="8"/>
       <c r="B195" s="15"/>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="8" t="s">
-        <v>277</v>
+        <v>389</v>
       </c>
       <c r="B196" s="15"/>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B197" s="15"/>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B198" s="15"/>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B199" s="15"/>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B200" s="15"/>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B201" s="15"/>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B202" s="15"/>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B203" s="15"/>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B204" s="15"/>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B205" s="15"/>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B206" s="15"/>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B207" s="15"/>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B208" s="15"/>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B209" s="15"/>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B210" s="15"/>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B211" s="15"/>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B212" s="15"/>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B213" s="15"/>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B214" s="15"/>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B215" s="15"/>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B216" s="15"/>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B217" s="15"/>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="B217" s="15"/>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="8"/>
       <c r="B218" s="15"/>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="8" t="s">
-        <v>390</v>
-      </c>
+      <c r="A219" s="8"/>
       <c r="B219" s="15"/>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="8" t="s">
-        <v>299</v>
+        <v>390</v>
       </c>
       <c r="B220" s="15"/>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B221" s="15"/>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B222" s="15"/>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B223" s="15"/>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B224" s="15"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B225" s="15"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B226" s="15"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B227" s="15"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B228" s="15"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B229" s="15"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B230" s="15"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B231" s="15"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B232" s="15"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B233" s="15"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="B234" s="15"/>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="B234" s="15"/>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" s="8"/>
       <c r="B235" s="15"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" s="8" t="s">
-        <v>391</v>
-      </c>
+      <c r="A236" s="8"/>
       <c r="B236" s="15"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="8" t="s">
-        <v>314</v>
+        <v>391</v>
       </c>
       <c r="B237" s="15"/>
-      <c r="C237" t="s">
-        <v>30</v>
-      </c>
-      <c r="D237" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B238" s="15"/>
+      <c r="C238" t="s">
+        <v>30</v>
+      </c>
       <c r="D238" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B239" s="15"/>
       <c r="D239" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B240" s="15"/>
+      <c r="D240" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B241" s="15"/>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B242" s="15"/>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B243" s="15"/>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B244" s="15"/>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B245" s="15"/>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B246" s="15"/>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B247" s="15"/>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B248" s="15"/>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B249" s="15"/>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B250" s="15"/>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B251" s="15"/>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B252" s="15"/>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B253" s="15"/>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B254" s="15"/>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B255" s="15"/>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B256" s="15"/>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B257" s="15"/>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B258" s="15"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B259" s="15"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B260" s="15"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B261" s="15"/>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="B261" s="15"/>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A262" s="8"/>
       <c r="B262" s="15"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A263" s="8" t="s">
-        <v>392</v>
-      </c>
+      <c r="A263" s="8"/>
       <c r="B263" s="15"/>
-      <c r="C263" t="s">
-        <v>94</v>
-      </c>
-      <c r="D263" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="8" t="s">
-        <v>339</v>
+        <v>392</v>
       </c>
       <c r="B264" s="15"/>
+      <c r="C264" t="s">
+        <v>94</v>
+      </c>
       <c r="D264" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B265" s="15"/>
+      <c r="D265" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B266" s="15"/>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B267" s="15"/>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B268" s="15"/>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B269" s="15"/>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B270" s="15"/>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B271" s="15"/>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B272" s="15"/>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B273" s="15"/>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B274" s="15"/>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B275" s="15"/>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B276" s="15"/>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B277" s="15"/>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B278" s="15"/>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B279" s="15"/>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="B280" s="15"/>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="B280" s="15"/>
+      <c r="B281" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AVK_DevOps_Plan.xlsx
+++ b/AVK_DevOps_Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3000" windowWidth="28800" windowHeight="12420" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="28800" windowHeight="12420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="COURSES" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="430">
   <si>
     <t>LINUX</t>
   </si>
@@ -1305,6 +1305,12 @@
   </si>
   <si>
     <t xml:space="preserve">REVIEW: NEED SOME PRACTICE IN WRITING BASH SCRIPTS. </t>
+  </si>
+  <si>
+    <t>CONFIGURED GITHUB &amp; GITLAB ACCOUNT TO MY LAPTOP.</t>
+  </si>
+  <si>
+    <t>INSTALLED VSCODE THROUGH CHOCOLATEY.</t>
   </si>
 </sst>
 </file>
@@ -3119,7 +3125,7 @@
   <dimension ref="A1:M281"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3362,12 +3368,18 @@
         <v>129</v>
       </c>
       <c r="B27" s="15"/>
+      <c r="C27" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>130</v>
       </c>
       <c r="B28" s="15"/>
+      <c r="C28" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">

--- a/AVK_DevOps_Plan.xlsx
+++ b/AVK_DevOps_Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="28800" windowHeight="12420" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="4200" windowWidth="28800" windowHeight="12420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="COURSES" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="436">
   <si>
     <t>LINUX</t>
   </si>
@@ -1311,6 +1311,24 @@
   </si>
   <si>
     <t>INSTALLED VSCODE THROUGH CHOCOLATEY.</t>
+  </si>
+  <si>
+    <t>17 - Git GitLab Exercises</t>
+  </si>
+  <si>
+    <t>DEVOPS MASTERCLASS ANSHUL SECTIONS 1 ~ 7</t>
+  </si>
+  <si>
+    <t>NANA</t>
+  </si>
+  <si>
+    <t>ANSHUL</t>
+  </si>
+  <si>
+    <t>TERRAFORM</t>
+  </si>
+  <si>
+    <t>IQS + STUDY</t>
   </si>
 </sst>
 </file>
@@ -1391,7 +1409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1430,6 +1448,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2423,8 +2445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2597,6 +2619,9 @@
       <c r="F7">
         <v>28</v>
       </c>
+      <c r="H7" t="s">
+        <v>432</v>
+      </c>
       <c r="I7" s="9">
         <v>44583</v>
       </c>
@@ -2620,6 +2645,9 @@
       <c r="F8">
         <v>45</v>
       </c>
+      <c r="H8" t="s">
+        <v>432</v>
+      </c>
       <c r="I8" s="9">
         <v>44584</v>
       </c>
@@ -2643,6 +2671,9 @@
       <c r="F9">
         <v>10</v>
       </c>
+      <c r="H9" t="s">
+        <v>432</v>
+      </c>
       <c r="I9" s="9">
         <v>44585</v>
       </c>
@@ -2666,6 +2697,9 @@
       <c r="F10">
         <v>9</v>
       </c>
+      <c r="H10" t="s">
+        <v>432</v>
+      </c>
       <c r="I10" s="9">
         <v>44586</v>
       </c>
@@ -2692,6 +2726,9 @@
       <c r="F11">
         <v>7</v>
       </c>
+      <c r="H11" t="s">
+        <v>432</v>
+      </c>
       <c r="I11" s="9">
         <v>44587</v>
       </c>
@@ -2718,6 +2755,9 @@
       <c r="F12">
         <v>5</v>
       </c>
+      <c r="H12" t="s">
+        <v>432</v>
+      </c>
       <c r="I12" s="9">
         <v>44588</v>
       </c>
@@ -2741,6 +2781,9 @@
       <c r="F13">
         <v>9</v>
       </c>
+      <c r="H13" t="s">
+        <v>432</v>
+      </c>
       <c r="I13" s="9">
         <v>44589</v>
       </c>
@@ -2758,6 +2801,9 @@
       <c r="F14">
         <v>26</v>
       </c>
+      <c r="H14" t="s">
+        <v>432</v>
+      </c>
       <c r="I14" s="9">
         <v>44590</v>
       </c>
@@ -2778,6 +2824,9 @@
       <c r="F15">
         <v>2</v>
       </c>
+      <c r="H15" t="s">
+        <v>433</v>
+      </c>
       <c r="I15" s="9">
         <v>44591</v>
       </c>
@@ -2798,6 +2847,9 @@
       <c r="F16">
         <v>6</v>
       </c>
+      <c r="H16" t="s">
+        <v>433</v>
+      </c>
       <c r="I16" s="9">
         <v>44592</v>
       </c>
@@ -2818,6 +2870,9 @@
       <c r="F17">
         <v>31</v>
       </c>
+      <c r="H17" t="s">
+        <v>433</v>
+      </c>
       <c r="I17" s="9">
         <v>44593</v>
       </c>
@@ -2847,6 +2902,9 @@
       <c r="F18">
         <v>114</v>
       </c>
+      <c r="H18" t="s">
+        <v>433</v>
+      </c>
       <c r="I18" s="9">
         <v>44594</v>
       </c>
@@ -2867,6 +2925,9 @@
       <c r="F19">
         <v>35</v>
       </c>
+      <c r="H19" t="s">
+        <v>433</v>
+      </c>
       <c r="I19" s="9">
         <v>44595</v>
       </c>
@@ -2890,6 +2951,9 @@
       <c r="F20">
         <v>14</v>
       </c>
+      <c r="H20" t="s">
+        <v>433</v>
+      </c>
       <c r="I20" s="9">
         <v>44596</v>
       </c>
@@ -2910,6 +2974,9 @@
       <c r="F21">
         <v>6</v>
       </c>
+      <c r="H21" t="s">
+        <v>433</v>
+      </c>
       <c r="I21" s="9">
         <v>44597</v>
       </c>
@@ -2927,6 +2994,9 @@
       <c r="F22">
         <v>12</v>
       </c>
+      <c r="H22" t="s">
+        <v>11</v>
+      </c>
       <c r="I22" s="9">
         <v>44598</v>
       </c>
@@ -2940,6 +3010,9 @@
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>106</v>
+      </c>
+      <c r="H23" t="s">
+        <v>11</v>
       </c>
       <c r="I23" s="9">
         <v>44599</v>
@@ -2959,6 +3032,9 @@
       <c r="G24">
         <v>15.8</v>
       </c>
+      <c r="H24" t="s">
+        <v>11</v>
+      </c>
       <c r="I24" s="9">
         <v>44600</v>
       </c>
@@ -2973,6 +3049,9 @@
       <c r="A25" t="s">
         <v>107</v>
       </c>
+      <c r="H25" t="s">
+        <v>434</v>
+      </c>
       <c r="I25" s="9">
         <v>44601</v>
       </c>
@@ -2987,6 +3066,9 @@
       <c r="A26" t="s">
         <v>108</v>
       </c>
+      <c r="H26" t="s">
+        <v>434</v>
+      </c>
       <c r="I26" s="9">
         <v>44602</v>
       </c>
@@ -3001,6 +3083,9 @@
       <c r="A27" t="s">
         <v>109</v>
       </c>
+      <c r="H27" t="s">
+        <v>434</v>
+      </c>
       <c r="I27" s="9">
         <v>44603</v>
       </c>
@@ -3012,6 +3097,9 @@
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>434</v>
+      </c>
       <c r="I28" s="9">
         <v>44604</v>
       </c>
@@ -3023,6 +3111,9 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>435</v>
+      </c>
       <c r="I29" s="9">
         <v>44605</v>
       </c>
@@ -3034,6 +3125,9 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>435</v>
+      </c>
       <c r="I30" s="9">
         <v>44606</v>
       </c>
@@ -3045,6 +3139,9 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>435</v>
+      </c>
       <c r="I31" s="9">
         <v>44607</v>
       </c>
@@ -3053,6 +3150,9 @@
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>435</v>
+      </c>
       <c r="I32" s="9">
         <v>44608</v>
       </c>
@@ -3063,7 +3163,10 @@
         <v>413</v>
       </c>
     </row>
-    <row r="33" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>435</v>
+      </c>
       <c r="I33" s="9">
         <v>44609</v>
       </c>
@@ -3074,7 +3177,10 @@
         <v>414</v>
       </c>
     </row>
-    <row r="34" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>435</v>
+      </c>
       <c r="I34" s="9">
         <v>44610</v>
       </c>
@@ -3085,7 +3191,10 @@
         <v>415</v>
       </c>
     </row>
-    <row r="35" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>435</v>
+      </c>
       <c r="I35" s="9">
         <v>44611</v>
       </c>
@@ -3096,7 +3205,10 @@
         <v>416</v>
       </c>
     </row>
-    <row r="36" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>435</v>
+      </c>
       <c r="I36" s="9">
         <v>44612</v>
       </c>
@@ -3107,7 +3219,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="37" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="8:16" x14ac:dyDescent="0.25">
       <c r="I37" s="9">
         <v>44613</v>
       </c>
@@ -3122,10 +3234,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M281"/>
+  <dimension ref="A1:M282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A205" sqref="A205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3264,7 +3376,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>122</v>
       </c>
@@ -3275,7 +3387,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>123</v>
       </c>
@@ -3286,7 +3398,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>124</v>
       </c>
@@ -3297,7 +3409,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>125</v>
       </c>
@@ -3308,7 +3420,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>126</v>
       </c>
@@ -3319,7 +3431,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>127</v>
       </c>
@@ -3330,7 +3442,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>426</v>
       </c>
@@ -3341,1613 +3453,1656 @@
         <v>427</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="15"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="B25" s="15"/>
+      <c r="B25" s="17">
+        <v>44581</v>
+      </c>
       <c r="C25" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="B26" s="17">
+        <v>44581</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="D26" s="18"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" t="s">
+      <c r="B27" s="17">
+        <v>44581</v>
+      </c>
+      <c r="C27" s="18" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" t="s">
+      <c r="B28" s="17">
+        <v>44581</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="B29" s="15"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="B29" s="17">
+        <v>44581</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="B30" s="15"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="B30" s="17">
+        <v>44581</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B31" s="15"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="B31" s="17">
+        <v>44581</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="B32" s="15"/>
+      <c r="B32" s="17">
+        <v>44581</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="B33" s="15"/>
+      <c r="B33" s="17">
+        <v>44581</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="B34" s="15"/>
+      <c r="B34" s="17">
+        <v>44581</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="B35" s="15"/>
+      <c r="B35" s="17">
+        <v>44581</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B36" s="15"/>
+      <c r="B36" s="17">
+        <v>44581</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="B37" s="15"/>
+      <c r="B37" s="17">
+        <v>44581</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B38" s="15"/>
+      <c r="B38" s="17">
+        <v>44582</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="B39" s="15"/>
+      <c r="B39" s="17">
+        <v>44582</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B40" s="15"/>
+      <c r="B40" s="17">
+        <v>44582</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B41" s="15"/>
+      <c r="B41" s="17">
+        <v>44582</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="15"/>
+      <c r="A42" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="B42" s="17">
+        <v>44582</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="8"/>
+      <c r="B43" s="15"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="B43" s="15"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+      <c r="B44" s="21"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="B44" s="15"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="B45" s="15"/>
+      <c r="B45" s="21"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>380</v>
-      </c>
+      <c r="A46" s="8"/>
       <c r="B46" s="15"/>
-      <c r="C46" t="s">
-        <v>93</v>
-      </c>
-      <c r="D46" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>145</v>
+        <v>380</v>
       </c>
       <c r="B47" s="15"/>
+      <c r="C47" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B48" s="15"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B49" s="15"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B50" s="15"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B51" s="15"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B52" s="15"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B53" s="15"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B54" s="15"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B55" s="15"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B56" s="15"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B57" s="15"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B58" s="15"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B59" s="15"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B59" s="15"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
       <c r="B60" s="15"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
-        <v>381</v>
-      </c>
+      <c r="A61" s="8"/>
       <c r="B61" s="15"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>158</v>
+        <v>381</v>
       </c>
       <c r="B62" s="15"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B63" s="15"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B64" s="15"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B65" s="15"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B65" s="15"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
       <c r="B66" s="15"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="8" t="s">
-        <v>382</v>
-      </c>
+      <c r="A67" s="8"/>
       <c r="B67" s="15"/>
-      <c r="C67" t="s">
-        <v>393</v>
-      </c>
-      <c r="D67" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>162</v>
+        <v>382</v>
       </c>
       <c r="B68" s="15"/>
+      <c r="C68" t="s">
+        <v>393</v>
+      </c>
+      <c r="D68" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B69" s="15"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B70" s="15"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B71" s="15"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B72" s="15"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B73" s="15"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B74" s="15"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B75" s="15"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B76" s="15"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B76" s="15"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="8"/>
       <c r="B77" s="15"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="8" t="s">
-        <v>383</v>
-      </c>
+      <c r="A78" s="8"/>
       <c r="B78" s="15"/>
-      <c r="C78" t="s">
-        <v>35</v>
-      </c>
-      <c r="D78" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>171</v>
+        <v>383</v>
       </c>
       <c r="B79" s="15"/>
+      <c r="C79" t="s">
+        <v>35</v>
+      </c>
       <c r="D79" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B80" s="15"/>
+      <c r="D80" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B80" s="15"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
+      <c r="B81" s="15"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B81" s="15"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="8" t="s">
+      <c r="B82" s="15"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B82" s="15"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="B83" s="15"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B83" s="15"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="8" t="s">
+      <c r="B84" s="15"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B84" s="15"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="8" t="s">
+      <c r="B85" s="15"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B85" s="15"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="8" t="s">
+      <c r="B86" s="15"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B86" s="15"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="8" t="s">
+      <c r="B87" s="15"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B87" s="15"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="8" t="s">
+      <c r="B88" s="15"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B88" s="15"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="8" t="s">
+      <c r="B89" s="15"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="B89" s="15"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="8" t="s">
+      <c r="B90" s="15"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="B90" s="15"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="8" t="s">
+      <c r="B91" s="15"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="B91" s="15"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="8" t="s">
+      <c r="B92" s="15"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B92" s="15"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="8" t="s">
+      <c r="B93" s="15"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="B93" s="15"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="8" t="s">
+      <c r="B94" s="15"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B94" s="15"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="8"/>
       <c r="B95" s="15"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="8" t="s">
-        <v>384</v>
-      </c>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="8"/>
       <c r="B96" s="15"/>
-      <c r="C96" t="s">
-        <v>38</v>
-      </c>
-      <c r="D96" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>187</v>
+        <v>384</v>
       </c>
       <c r="B97" s="15"/>
+      <c r="C97" t="s">
+        <v>38</v>
+      </c>
       <c r="D97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B98" s="15"/>
+      <c r="D98" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B99" s="15"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B100" s="15"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B101" s="15"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B102" s="15"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B103" s="15"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B104" s="15"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B105" s="15"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B106" s="15"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B107" s="15"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B108" s="15"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B109" s="15"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B110" s="15"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B111" s="15"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B112" s="15"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B113" s="15"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="B113" s="15"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="8"/>
       <c r="B114" s="15"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="8" t="s">
-        <v>385</v>
-      </c>
+      <c r="A115" s="8"/>
       <c r="B115" s="15"/>
-      <c r="C115" t="s">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
-        <v>204</v>
+        <v>385</v>
       </c>
       <c r="B116" s="15"/>
+      <c r="C116" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B117" s="15"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B118" s="15"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B119" s="15"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B120" s="15"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B121" s="15"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B122" s="15"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B123" s="15"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B124" s="15"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B125" s="15"/>
-      <c r="H125" t="s">
-        <v>403</v>
-      </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B126" s="15"/>
+      <c r="H126" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B127" s="15"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B128" s="15"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B128" s="15"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="8"/>
       <c r="B129" s="15"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="8" t="s">
-        <v>386</v>
-      </c>
+      <c r="A130" s="8"/>
       <c r="B130" s="15"/>
-      <c r="C130" t="s">
-        <v>94</v>
-      </c>
-      <c r="D130" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
-        <v>217</v>
+        <v>386</v>
       </c>
       <c r="B131" s="15"/>
+      <c r="C131" t="s">
+        <v>94</v>
+      </c>
       <c r="D131" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B132" s="15"/>
+      <c r="D132" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B133" s="15"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B134" s="15"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B135" s="15"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B136" s="15"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B137" s="15"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B138" s="15"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B139" s="15"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B140" s="15"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B141" s="15"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B142" s="15"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B143" s="15"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B144" s="15"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B145" s="15"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B146" s="15"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B147" s="15"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B148" s="15"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B149" s="15"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B150" s="15"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B151" s="15"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B152" s="15"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B153" s="15"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B154" s="15"/>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B155" s="15"/>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="B155" s="15"/>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="8"/>
       <c r="B156" s="15"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="8" t="s">
-        <v>387</v>
-      </c>
+      <c r="A157" s="8"/>
       <c r="B157" s="15"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="s">
-        <v>242</v>
+        <v>387</v>
       </c>
       <c r="B158" s="15"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B159" s="15"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B160" s="15"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B161" s="15"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B162" s="15"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B163" s="15"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B164" s="15"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B165" s="15"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B166" s="15"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B167" s="15"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="B167" s="15"/>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="8"/>
       <c r="B168" s="15"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="8" t="s">
-        <v>388</v>
-      </c>
+      <c r="A169" s="8"/>
       <c r="B169" s="15"/>
-      <c r="C169" t="s">
-        <v>19</v>
-      </c>
-      <c r="D169" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="s">
-        <v>252</v>
+        <v>388</v>
       </c>
       <c r="B170" s="15"/>
+      <c r="C170" t="s">
+        <v>19</v>
+      </c>
+      <c r="D170" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B171" s="15"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B172" s="15"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B173" s="15"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B174" s="15"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B175" s="15"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B176" s="15"/>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B177" s="15"/>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B178" s="15"/>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B179" s="15"/>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B180" s="15"/>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B181" s="15"/>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B182" s="15"/>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B183" s="15"/>
-      <c r="M183">
-        <v>10</v>
-      </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B184" s="15"/>
+      <c r="M184">
+        <v>10</v>
+      </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B185" s="15"/>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B186" s="15"/>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B187" s="15"/>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B188" s="15"/>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B189" s="15"/>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B190" s="15"/>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B191" s="15"/>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B192" s="15"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B193" s="15"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B194" s="15"/>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="B194" s="15"/>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="8"/>
       <c r="B195" s="15"/>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="8" t="s">
-        <v>389</v>
-      </c>
+      <c r="A196" s="8"/>
       <c r="B196" s="15"/>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="8" t="s">
-        <v>277</v>
+        <v>389</v>
       </c>
       <c r="B197" s="15"/>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B198" s="15"/>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B199" s="15"/>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B200" s="15"/>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B201" s="15"/>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B202" s="15"/>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B203" s="15"/>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B204" s="15"/>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B205" s="15"/>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B206" s="15"/>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B207" s="15"/>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B208" s="15"/>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B209" s="15"/>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B210" s="15"/>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B211" s="15"/>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B212" s="15"/>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B213" s="15"/>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B214" s="15"/>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B215" s="15"/>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B216" s="15"/>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B217" s="15"/>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B218" s="15"/>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="B218" s="15"/>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="8"/>
       <c r="B219" s="15"/>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="8" t="s">
-        <v>390</v>
-      </c>
+      <c r="A220" s="8"/>
       <c r="B220" s="15"/>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="8" t="s">
-        <v>299</v>
+        <v>390</v>
       </c>
       <c r="B221" s="15"/>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B222" s="15"/>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B223" s="15"/>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B224" s="15"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B225" s="15"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B226" s="15"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B227" s="15"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B228" s="15"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B229" s="15"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B230" s="15"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B231" s="15"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B232" s="15"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B233" s="15"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B234" s="15"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="B235" s="15"/>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="B235" s="15"/>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" s="8"/>
       <c r="B236" s="15"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237" s="8" t="s">
-        <v>391</v>
-      </c>
+      <c r="A237" s="8"/>
       <c r="B237" s="15"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="8" t="s">
-        <v>314</v>
+        <v>391</v>
       </c>
       <c r="B238" s="15"/>
-      <c r="C238" t="s">
-        <v>30</v>
-      </c>
-      <c r="D238" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B239" s="15"/>
+      <c r="C239" t="s">
+        <v>30</v>
+      </c>
       <c r="D239" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B240" s="15"/>
       <c r="D240" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="B241" s="15"/>
+      <c r="D241" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="8" t="s">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="B241" s="15"/>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="8" t="s">
+      <c r="B242" s="15"/>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="B242" s="15"/>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="8" t="s">
+      <c r="B243" s="15"/>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="B243" s="15"/>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="8" t="s">
+      <c r="B244" s="15"/>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="B244" s="15"/>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="8" t="s">
+      <c r="B245" s="15"/>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="B245" s="15"/>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="8" t="s">
+      <c r="B246" s="15"/>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="B246" s="15"/>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="8" t="s">
+      <c r="B247" s="15"/>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B247" s="15"/>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="8" t="s">
+      <c r="B248" s="15"/>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="B248" s="15"/>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="8" t="s">
+      <c r="B249" s="15"/>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="B249" s="15"/>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="8" t="s">
+      <c r="B250" s="15"/>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="B250" s="15"/>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="8" t="s">
+      <c r="B251" s="15"/>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="B251" s="15"/>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="8" t="s">
+      <c r="B252" s="15"/>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="B252" s="15"/>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="8" t="s">
+      <c r="B253" s="15"/>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="B253" s="15"/>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="8" t="s">
+      <c r="B254" s="15"/>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="B254" s="15"/>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="8" t="s">
+      <c r="B255" s="15"/>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="8" t="s">
         <v>331</v>
-      </c>
-      <c r="B255" s="15"/>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="8" t="s">
-        <v>332</v>
       </c>
       <c r="B256" s="15"/>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B257" s="15"/>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B258" s="15"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B259" s="15"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B260" s="15"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B261" s="15"/>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B262" s="15"/>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="B262" s="15"/>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A263" s="8"/>
       <c r="B263" s="15"/>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A264" s="8" t="s">
-        <v>392</v>
-      </c>
+      <c r="A264" s="8"/>
       <c r="B264" s="15"/>
-      <c r="C264" t="s">
-        <v>94</v>
-      </c>
-      <c r="D264" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="8" t="s">
-        <v>339</v>
+        <v>392</v>
       </c>
       <c r="B265" s="15"/>
+      <c r="C265" t="s">
+        <v>94</v>
+      </c>
       <c r="D265" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B266" s="15"/>
+      <c r="D266" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B267" s="15"/>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B268" s="15"/>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B269" s="15"/>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B270" s="15"/>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B271" s="15"/>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B272" s="15"/>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B273" s="15"/>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B274" s="15"/>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B275" s="15"/>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B276" s="15"/>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B277" s="15"/>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B278" s="15"/>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B279" s="15"/>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B280" s="15"/>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="B281" s="15"/>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="B281" s="15"/>
+      <c r="B282" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AVK_DevOps_Plan.xlsx
+++ b/AVK_DevOps_Plan.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4200" windowWidth="28800" windowHeight="12420" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="4200" windowWidth="28800" windowHeight="12420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="COURSES" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
-    <sheet name="DB-N" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="DB-N" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="542">
   <si>
     <t>LINUX</t>
   </si>
@@ -1232,9 +1233,6 @@
     <t>STILL NOT UNDERSTOOD, WATCH FOR 4TH TIME.</t>
   </si>
   <si>
-    <t>1.+13.50</t>
-  </si>
-  <si>
     <t>TYPICALLY HOW WOULD MY INTERVIEW BE LIKE</t>
   </si>
   <si>
@@ -1329,6 +1327,327 @@
   </si>
   <si>
     <t>IQS + STUDY</t>
+  </si>
+  <si>
+    <t>WHY I AM TAKING SO LONG TO GET MY DESIRED JOB?</t>
+  </si>
+  <si>
+    <t>AT FIRST NO PERFECT PLAN.</t>
+  </si>
+  <si>
+    <t>THOUGHT TO GET JOB ONLY BY STUDYING AWS AZURE TERRAFORM &amp; ANSIBLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUT AFTER GOING THROUGH DOCKER, PLANED TO TAKE DEVOPS COURSE IN FULL. </t>
+  </si>
+  <si>
+    <t>HERE I MISSED MY SON HOLIDAYS.</t>
+  </si>
+  <si>
+    <t>ONCE I TOOK DECISION TO TAK FULL DEVOPS COURSE, PLANNED TO TAKE DPT CLASS</t>
+  </si>
+  <si>
+    <t>HOPING THAT STUDYING DPT IS ENOUGH TO GET THE JOB AND TOOK MOM HOLIDAYS.</t>
+  </si>
+  <si>
+    <t>BUT WHEN STARTED GOING THROUGH INTERVIEWS FOUND THAT THERE ARE MANY TOPICS MISSING</t>
+  </si>
+  <si>
+    <t>AND STARTED PURCHASING MANY K8S COURSES. AND MEANWHILE STRUCK WITH AWS IN STEPHEN COURSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT ABLE TO UNDERSTAND DUE TO HIS FAST CLASSES. </t>
+  </si>
+  <si>
+    <t>NOW MOM HOLIDAYS ALSO GONE.</t>
+  </si>
+  <si>
+    <t>NOV GONE</t>
+  </si>
+  <si>
+    <t>DEC GONE</t>
+  </si>
+  <si>
+    <t>JANUARY IS GOING</t>
+  </si>
+  <si>
+    <t>STILL NOW I HAVE KNOWLEDGE, BUT NO FULL INFORMATION.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUST ONE QUESTION - CAN I TAKE INTERVIEW WITH MY CURRENT KNOWLEDGE </t>
+  </si>
+  <si>
+    <t>AND GOING THROUGH INTERVIEW QUESTIONS FOR A WEEK.</t>
+  </si>
+  <si>
+    <t>DEFINITELY NO</t>
+  </si>
+  <si>
+    <t>THEN WHAT TO DO?</t>
+  </si>
+  <si>
+    <t>NOW I GOT NANA COURSES AS WELL BUT I WANT TO FINISH IT 1 - 2 WEEKS.</t>
+  </si>
+  <si>
+    <t>MY PLAN WAS TO TAKE NANA COURSE AND ANSHUL COURSE I.E. JUST GOING THROUGH, NO PRACTICE</t>
+  </si>
+  <si>
+    <t>AND THEN GO THROUGH INTERVIEW QUESTIONS</t>
+  </si>
+  <si>
+    <t>AND THEN APPLY FOR JOBS.</t>
+  </si>
+  <si>
+    <t>BUT WHAT I UNDERSTOOD FROM NANA COURSE, THAT JENKINS COURSE WAS NOT ABLE TO UNDERSTAND ANY.</t>
+  </si>
+  <si>
+    <t>AND I CAN'T WRITE DOCKER FILE JENKINS FILE, K8S MANIFEST FILES.</t>
+  </si>
+  <si>
+    <t>WITH THE EXPERIENCE I AM TAKING AND WITH THE RANGE OF TOOLS I AM SHOWCASING, I SHOULD KNOW ALL THESE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOW WITHOUT PRACTICING AND WITHOUT UNDERSTANDING CONCEPTS, JUST BY STUDYING INTERVIEW QUESTIONS, </t>
+  </si>
+  <si>
+    <t>STUDYING JUST ONE QUESTION IS GOOD, BUT AGAIN AT THAT TIME I WILL FEEL LIKE OH..WHAT IF HE MAY ASK THIS QUESTION</t>
+  </si>
+  <si>
+    <t>AGAIN I HAVE TO COME BACK AND STUDY THIS?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I WILL STUDY IT NOW. NOW WHAT IS PURPOSE OF JUST GOING THROUGH COURSE AND INTERVIEW QUESTIONS. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT THAT TIME MORE BLANK WILL COME. AND MORE TIME WASTE. </t>
+  </si>
+  <si>
+    <t>NOW THAT I HAVE GOT ALL COURSES WITH ME. I DON'T WANT TO BUY ANY COURSE</t>
+  </si>
+  <si>
+    <t>DON'T RESIGN FROM JOB OR FOLLOW THE MAY PRINCIPAL.</t>
+  </si>
+  <si>
+    <t>DO NOT WORRY ABOUT THE JOBS. WITH THE KNOWLEDGE AND EXPERIENCE IAM HAVING I WILL GET ANY JOB.</t>
+  </si>
+  <si>
+    <t>BUT THIS I HAVE TO TAKE TIME AND STUDY EACH TOPIC ONE BY ONE AND COMPLETE AND THEN MOVE ON FURTHER.</t>
+  </si>
+  <si>
+    <t>ALSO I NOW KNOW HOW TO PROCEED AS WELL, PREVIOUSLY I WAS NOT AWARE OF HOW TO PROCEED.</t>
+  </si>
+  <si>
+    <t>COURSE STACK</t>
+  </si>
+  <si>
+    <t>AWS CLOUD - RANGA KARANAM</t>
+  </si>
+  <si>
+    <t>LINUX, BASH SCRIPTING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APACHE HTTP WEB SERVER, TOMCAT, NGINX </t>
+  </si>
+  <si>
+    <t>DEVOPS INTRO - COMPARISION WITH AGILE MODEL</t>
+  </si>
+  <si>
+    <t>JENKINS FOR CI</t>
+  </si>
+  <si>
+    <t>DOCKER FOR CI</t>
+  </si>
+  <si>
+    <t>KUBERNETES &amp; HELM</t>
+  </si>
+  <si>
+    <t>MONITORING</t>
+  </si>
+  <si>
+    <t>JENKINS FOR CD</t>
+  </si>
+  <si>
+    <t>AWS LAMBDA &amp; API GATEWAY</t>
+  </si>
+  <si>
+    <t>DEVSECOPS</t>
+  </si>
+  <si>
+    <t>THE PLAN</t>
+  </si>
+  <si>
+    <t>SELECT A NOTE TAKING APP - MAKE IT ONE NOTES FOR REVIEW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURRENTLY I AM HAVING MANY NOTES AND IS VERY MUCH DUPLICATED. </t>
+  </si>
+  <si>
+    <t>INTERVIEW QUESTIONS</t>
+  </si>
+  <si>
+    <t>AS IAM SHOWING SOCIAL PROOF, THEY MAY ASK ME ABOUT CONCEPTS OF THE PROJECTS</t>
+  </si>
+  <si>
+    <t>I SHOULD BE ABLE TO TELL THEM.</t>
+  </si>
+  <si>
+    <t>SO NEED TO HAVE LOTS OF HANDS-ON AND PERFORM PROJECTS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS </t>
+  </si>
+  <si>
+    <t>RANGA KARANAM</t>
+  </si>
+  <si>
+    <t>STEPHAN, IWAYQ</t>
+  </si>
+  <si>
+    <t>KALYAN REDDY D, DEVOPS MASTERCLASS</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>DB-N</t>
+  </si>
+  <si>
+    <t>DM-A</t>
+  </si>
+  <si>
+    <t>DPT</t>
+  </si>
+  <si>
+    <t>DCC</t>
+  </si>
+  <si>
+    <t>LINUX MOBI, DB-N</t>
+  </si>
+  <si>
+    <t>LINUX BS</t>
+  </si>
+  <si>
+    <t>IMRAN TELI</t>
+  </si>
+  <si>
+    <t>TOMCAT</t>
+  </si>
+  <si>
+    <t>UDEMY NGINX</t>
+  </si>
+  <si>
+    <t>DEVOPS</t>
+  </si>
+  <si>
+    <t>UDEMY RENJU</t>
+  </si>
+  <si>
+    <t>GIT</t>
+  </si>
+  <si>
+    <t>SONAR</t>
+  </si>
+  <si>
+    <t>DOCKER</t>
+  </si>
+  <si>
+    <t>PROJECTS AT EACH LEVEL</t>
+  </si>
+  <si>
+    <t>AWS TERRAFORM - KALYAN REDDY PROJ</t>
+  </si>
+  <si>
+    <t>ANSIBLE, PACKER - PROJ</t>
+  </si>
+  <si>
+    <t>PROJ</t>
+  </si>
+  <si>
+    <t>UDEMY</t>
+  </si>
+  <si>
+    <t>K8S</t>
+  </si>
+  <si>
+    <t>UDEMY ALL</t>
+  </si>
+  <si>
+    <t>DPT PROJ</t>
+  </si>
+  <si>
+    <t>YOUTUBE - NANA</t>
+  </si>
+  <si>
+    <t>LAMBDA</t>
+  </si>
+  <si>
+    <t>IQS</t>
+  </si>
+  <si>
+    <t>YOUTUBE</t>
+  </si>
+  <si>
+    <t>1W</t>
+  </si>
+  <si>
+    <t>1D</t>
+  </si>
+  <si>
+    <t>3D</t>
+  </si>
+  <si>
+    <t>2D</t>
+  </si>
+  <si>
+    <t>2W</t>
+  </si>
+  <si>
+    <t>JIRA &amp; INTEGRATIONS</t>
+  </si>
+  <si>
+    <t>14 WEEKS</t>
+  </si>
+  <si>
+    <t>15 DAYS = 2 WEEKS</t>
+  </si>
+  <si>
+    <t>TOTAL 16 WEEKS = 4 MONTHS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">START </t>
+  </si>
+  <si>
+    <t>24TH JAN 2022</t>
+  </si>
+  <si>
+    <t>FINISH</t>
+  </si>
+  <si>
+    <t>24TH MAY 2022</t>
+  </si>
+  <si>
+    <t>AWS TRF</t>
+  </si>
+  <si>
+    <t>1 PROJ</t>
+  </si>
+  <si>
+    <t>AWS IWAYQ</t>
+  </si>
+  <si>
+    <t>2PROJ</t>
+  </si>
+  <si>
+    <t>3 PROJ</t>
+  </si>
+  <si>
+    <t>AWS AMI</t>
+  </si>
+  <si>
+    <t>4 PROJ</t>
+  </si>
+  <si>
+    <t>K8S &amp; HELM</t>
   </si>
 </sst>
 </file>
@@ -1409,7 +1728,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1452,6 +1771,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2445,8 +2765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29:H36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2620,7 +2940,7 @@
         <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I7" s="9">
         <v>44583</v>
@@ -2646,7 +2966,7 @@
         <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I8" s="9">
         <v>44584</v>
@@ -2672,7 +2992,7 @@
         <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I9" s="9">
         <v>44585</v>
@@ -2698,7 +3018,7 @@
         <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I10" s="9">
         <v>44586</v>
@@ -2727,7 +3047,7 @@
         <v>7</v>
       </c>
       <c r="H11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I11" s="9">
         <v>44587</v>
@@ -2756,7 +3076,7 @@
         <v>5</v>
       </c>
       <c r="H12" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I12" s="9">
         <v>44588</v>
@@ -2782,7 +3102,7 @@
         <v>9</v>
       </c>
       <c r="H13" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I13" s="9">
         <v>44589</v>
@@ -2802,7 +3122,7 @@
         <v>26</v>
       </c>
       <c r="H14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I14" s="9">
         <v>44590</v>
@@ -2825,7 +3145,7 @@
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I15" s="9">
         <v>44591</v>
@@ -2848,7 +3168,7 @@
         <v>6</v>
       </c>
       <c r="H16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I16" s="9">
         <v>44592</v>
@@ -2871,7 +3191,7 @@
         <v>31</v>
       </c>
       <c r="H17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I17" s="9">
         <v>44593</v>
@@ -2903,7 +3223,7 @@
         <v>114</v>
       </c>
       <c r="H18" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I18" s="9">
         <v>44594</v>
@@ -2926,7 +3246,7 @@
         <v>35</v>
       </c>
       <c r="H19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I19" s="9">
         <v>44595</v>
@@ -2952,7 +3272,7 @@
         <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I20" s="9">
         <v>44596</v>
@@ -2975,7 +3295,7 @@
         <v>6</v>
       </c>
       <c r="H21" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I21" s="9">
         <v>44597</v>
@@ -3004,7 +3324,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -3021,7 +3341,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -3042,7 +3362,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -3050,7 +3370,7 @@
         <v>107</v>
       </c>
       <c r="H25" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I25" s="9">
         <v>44601</v>
@@ -3059,7 +3379,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -3067,7 +3387,7 @@
         <v>108</v>
       </c>
       <c r="H26" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I26" s="9">
         <v>44602</v>
@@ -3076,7 +3396,7 @@
         <v>89</v>
       </c>
       <c r="P26" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -3084,7 +3404,7 @@
         <v>109</v>
       </c>
       <c r="H27" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I27" s="9">
         <v>44603</v>
@@ -3093,12 +3413,12 @@
         <v>90</v>
       </c>
       <c r="P27" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H28" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I28" s="9">
         <v>44604</v>
@@ -3107,12 +3427,12 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H29" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I29" s="9">
         <v>44605</v>
@@ -3121,12 +3441,12 @@
         <v>92</v>
       </c>
       <c r="P29" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H30" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I30" s="9">
         <v>44606</v>
@@ -3135,12 +3455,12 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H31" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I31" s="9">
         <v>44607</v>
@@ -3151,7 +3471,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H32" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I32" s="9">
         <v>44608</v>
@@ -3160,12 +3480,12 @@
         <v>88</v>
       </c>
       <c r="P32" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="33" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H33" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I33" s="9">
         <v>44609</v>
@@ -3174,12 +3494,12 @@
         <v>89</v>
       </c>
       <c r="P33" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="34" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H34" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I34" s="9">
         <v>44610</v>
@@ -3188,12 +3508,12 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="35" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H35" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I35" s="9">
         <v>44611</v>
@@ -3202,12 +3522,12 @@
         <v>91</v>
       </c>
       <c r="P35" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="36" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H36" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I36" s="9">
         <v>44612</v>
@@ -3216,7 +3536,7 @@
         <v>92</v>
       </c>
       <c r="P36" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="37" spans="8:16" x14ac:dyDescent="0.25">
@@ -3234,10 +3554,753 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>527</v>
+      </c>
+      <c r="R39" t="s">
+        <v>528</v>
+      </c>
+      <c r="T39" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>530</v>
+      </c>
+      <c r="R40" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q41" t="s">
+        <v>532</v>
+      </c>
+      <c r="R41" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>471</v>
+      </c>
+      <c r="K42" t="s">
+        <v>494</v>
+      </c>
+      <c r="L42" t="s">
+        <v>495</v>
+      </c>
+      <c r="M42" t="s">
+        <v>496</v>
+      </c>
+      <c r="N42" t="s">
+        <v>497</v>
+      </c>
+      <c r="O42" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>472</v>
+      </c>
+      <c r="F43" t="s">
+        <v>512</v>
+      </c>
+      <c r="H43" s="22">
+        <v>44585</v>
+      </c>
+      <c r="I43" s="22">
+        <v>44591</v>
+      </c>
+      <c r="J43" t="s">
+        <v>521</v>
+      </c>
+      <c r="K43" t="s">
+        <v>490</v>
+      </c>
+      <c r="L43" t="s">
+        <v>491</v>
+      </c>
+      <c r="N43" t="s">
+        <v>492</v>
+      </c>
+      <c r="P43" t="s">
+        <v>495</v>
+      </c>
+      <c r="S43" t="s">
+        <v>535</v>
+      </c>
+      <c r="T43" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>510</v>
+      </c>
+      <c r="J44" t="s">
+        <v>521</v>
+      </c>
+      <c r="K44" t="s">
+        <v>534</v>
+      </c>
+      <c r="L44" t="s">
+        <v>493</v>
+      </c>
+      <c r="S44" t="s">
+        <v>537</v>
+      </c>
+      <c r="T44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
+        <v>473</v>
+      </c>
+      <c r="J45" t="s">
+        <v>521</v>
+      </c>
+      <c r="K45" t="s">
+        <v>500</v>
+      </c>
+      <c r="L45" t="s">
+        <v>499</v>
+      </c>
+      <c r="N45" t="s">
+        <v>501</v>
+      </c>
+      <c r="S45" t="s">
+        <v>538</v>
+      </c>
+      <c r="T45" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>474</v>
+      </c>
+      <c r="J46" t="s">
+        <v>521</v>
+      </c>
+      <c r="K46" t="s">
+        <v>502</v>
+      </c>
+      <c r="L46" t="s">
+        <v>497</v>
+      </c>
+      <c r="M46" t="s">
+        <v>503</v>
+      </c>
+      <c r="S46" t="s">
+        <v>540</v>
+      </c>
+      <c r="T46" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>475</v>
+      </c>
+      <c r="J47" t="s">
+        <v>522</v>
+      </c>
+      <c r="K47" t="s">
+        <v>504</v>
+      </c>
+      <c r="L47" t="s">
+        <v>505</v>
+      </c>
+      <c r="N47" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>25</v>
+      </c>
+      <c r="J48" t="s">
+        <v>523</v>
+      </c>
+      <c r="K48" t="s">
+        <v>506</v>
+      </c>
+      <c r="L48" t="s">
+        <v>498</v>
+      </c>
+      <c r="M48" t="s">
+        <v>495</v>
+      </c>
+      <c r="N48" t="s">
+        <v>496</v>
+      </c>
+      <c r="O48" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>93</v>
+      </c>
+      <c r="J49" t="s">
+        <v>521</v>
+      </c>
+      <c r="K49" t="s">
+        <v>507</v>
+      </c>
+      <c r="L49" t="s">
+        <v>497</v>
+      </c>
+      <c r="M49" t="s">
+        <v>495</v>
+      </c>
+      <c r="N49" t="s">
+        <v>496</v>
+      </c>
+      <c r="O49" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>477</v>
+      </c>
+      <c r="J50" t="s">
+        <v>521</v>
+      </c>
+      <c r="K50" t="s">
+        <v>508</v>
+      </c>
+      <c r="L50" t="s">
+        <v>496</v>
+      </c>
+      <c r="M50" t="s">
+        <v>497</v>
+      </c>
+      <c r="N50" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>9</v>
+      </c>
+      <c r="B51" t="s">
+        <v>476</v>
+      </c>
+      <c r="J51" t="s">
+        <v>521</v>
+      </c>
+      <c r="K51" t="s">
+        <v>38</v>
+      </c>
+      <c r="L51" t="s">
+        <v>496</v>
+      </c>
+      <c r="M51" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>10</v>
+      </c>
+      <c r="B52" t="s">
+        <v>511</v>
+      </c>
+      <c r="J52" t="s">
+        <v>521</v>
+      </c>
+      <c r="K52" t="s">
+        <v>30</v>
+      </c>
+      <c r="L52" t="s">
+        <v>513</v>
+      </c>
+      <c r="M52" t="s">
+        <v>496</v>
+      </c>
+      <c r="N52" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>11</v>
+      </c>
+      <c r="B53" t="s">
+        <v>34</v>
+      </c>
+      <c r="J53" t="s">
+        <v>522</v>
+      </c>
+      <c r="K53" t="s">
+        <v>34</v>
+      </c>
+      <c r="M53" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>12</v>
+      </c>
+      <c r="B54" t="s">
+        <v>35</v>
+      </c>
+      <c r="J54" t="s">
+        <v>524</v>
+      </c>
+      <c r="K54" t="s">
+        <v>508</v>
+      </c>
+      <c r="L54" t="s">
+        <v>496</v>
+      </c>
+      <c r="M54" t="s">
+        <v>497</v>
+      </c>
+      <c r="N54" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>13</v>
+      </c>
+      <c r="B55" t="s">
+        <v>478</v>
+      </c>
+      <c r="J55" t="s">
+        <v>525</v>
+      </c>
+      <c r="K55" t="s">
+        <v>514</v>
+      </c>
+      <c r="L55" t="s">
+        <v>515</v>
+      </c>
+      <c r="M55" t="s">
+        <v>496</v>
+      </c>
+      <c r="N55" t="s">
+        <v>495</v>
+      </c>
+      <c r="O55" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s">
+        <v>480</v>
+      </c>
+      <c r="E56" t="s">
+        <v>512</v>
+      </c>
+      <c r="J56" t="s">
+        <v>524</v>
+      </c>
+      <c r="K56" t="s">
+        <v>38</v>
+      </c>
+      <c r="L56" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>15</v>
+      </c>
+      <c r="B57" t="s">
+        <v>479</v>
+      </c>
+      <c r="E57" t="s">
+        <v>512</v>
+      </c>
+      <c r="J57" t="s">
+        <v>523</v>
+      </c>
+      <c r="K57" t="s">
+        <v>479</v>
+      </c>
+      <c r="L57" t="s">
+        <v>513</v>
+      </c>
+      <c r="M57" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>16</v>
+      </c>
+      <c r="B58" t="s">
+        <v>482</v>
+      </c>
+      <c r="E58" t="s">
+        <v>512</v>
+      </c>
+      <c r="J58" t="s">
+        <v>521</v>
+      </c>
+      <c r="K58" t="s">
+        <v>482</v>
+      </c>
+      <c r="L58" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>17</v>
+      </c>
+      <c r="B59" t="s">
+        <v>46</v>
+      </c>
+      <c r="E59" t="s">
+        <v>512</v>
+      </c>
+      <c r="J59" t="s">
+        <v>521</v>
+      </c>
+      <c r="K59" t="s">
+        <v>46</v>
+      </c>
+      <c r="L59" t="s">
+        <v>495</v>
+      </c>
+      <c r="M59" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>18</v>
+      </c>
+      <c r="B60" t="s">
+        <v>481</v>
+      </c>
+      <c r="E60" t="s">
+        <v>512</v>
+      </c>
+      <c r="J60" t="s">
+        <v>521</v>
+      </c>
+      <c r="K60" t="s">
+        <v>518</v>
+      </c>
+      <c r="L60" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>19</v>
+      </c>
+      <c r="B61" t="s">
+        <v>526</v>
+      </c>
+      <c r="E61" t="s">
+        <v>512</v>
+      </c>
+      <c r="J61" t="s">
+        <v>523</v>
+      </c>
+      <c r="K61" t="s">
+        <v>40</v>
+      </c>
+      <c r="L61" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>20</v>
+      </c>
+      <c r="B62" t="s">
+        <v>509</v>
+      </c>
+      <c r="E62" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>21</v>
+      </c>
+      <c r="B63" t="s">
+        <v>486</v>
+      </c>
+      <c r="E63" t="s">
+        <v>512</v>
+      </c>
+      <c r="J63" t="s">
+        <v>521</v>
+      </c>
+      <c r="K63" t="s">
+        <v>519</v>
+      </c>
+      <c r="L63" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>484</v>
+      </c>
+      <c r="B65" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>489</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M282"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A205" sqref="A205"/>
+    <sheetView topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="K129" sqref="K129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3362,7 +4425,7 @@
         <v>44580</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -3373,7 +4436,7 @@
         <v>44580</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3384,7 +4447,7 @@
         <v>44581</v>
       </c>
       <c r="C17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -3395,7 +4458,7 @@
         <v>44581</v>
       </c>
       <c r="C18" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3406,7 +4469,7 @@
         <v>44581</v>
       </c>
       <c r="C19" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3417,7 +4480,7 @@
         <v>44581</v>
       </c>
       <c r="C20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3428,7 +4491,7 @@
         <v>44581</v>
       </c>
       <c r="C21" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3439,18 +4502,18 @@
         <v>44581</v>
       </c>
       <c r="C22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B23" s="17">
         <v>44581</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3476,7 +4539,7 @@
         <v>44581</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D26" s="18"/>
     </row>
@@ -3488,7 +4551,7 @@
         <v>44581</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3499,7 +4562,7 @@
         <v>44581</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3608,7 +4671,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B42" s="17">
         <v>44582</v>
@@ -3635,10 +4698,10 @@
       <c r="B46" s="15"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="B47" s="15"/>
+      <c r="B47" s="21"/>
       <c r="C47" t="s">
         <v>93</v>
       </c>
@@ -3647,126 +4710,125 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="B48" s="15"/>
+      <c r="B48" s="21"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="B49" s="15"/>
+      <c r="B49" s="21"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="B50" s="15"/>
+      <c r="B50" s="21"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="B51" s="15"/>
+      <c r="B51" s="21"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="B52" s="15"/>
+      <c r="B52" s="21"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="B53" s="15"/>
+      <c r="B53" s="21"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="B54" s="15"/>
+      <c r="B54" s="21"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="B55" s="15"/>
+      <c r="B55" s="21"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="B56" s="15"/>
+      <c r="B56" s="21"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="B57" s="15"/>
+      <c r="B57" s="21"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="B58" s="15"/>
+      <c r="B58" s="21"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="B59" s="15"/>
+      <c r="B59" s="21"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="B60" s="15"/>
+      <c r="B60" s="21"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="8"/>
-      <c r="B61" s="15"/>
+      <c r="B61"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="B62" s="15"/>
+      <c r="B62" s="21"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="B63" s="15"/>
+      <c r="B63" s="21"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="B64" s="15"/>
+      <c r="B64" s="21"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="B65" s="15"/>
+      <c r="B65" s="21"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="B66" s="15"/>
+      <c r="B66" s="21"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="8"/>
-      <c r="B67" s="15"/>
+      <c r="A67" s="20"/>
+      <c r="B67" s="21"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="8" t="s">
+      <c r="A68" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="B68" s="15"/>
+      <c r="B68" s="21"/>
       <c r="C68" t="s">
         <v>393</v>
       </c>
@@ -3775,68 +4837,67 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="B69" s="15"/>
+      <c r="B69" s="21"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="B70" s="15"/>
+      <c r="B70" s="21"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="B71" s="15"/>
+      <c r="B71" s="21"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="B72" s="15"/>
+      <c r="B72" s="21"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="B73" s="15"/>
+      <c r="B73" s="21"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="8" t="s">
+      <c r="A74" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="B74" s="15"/>
+      <c r="B74" s="21"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="B75" s="15"/>
+      <c r="B75" s="21"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="8" t="s">
+      <c r="A76" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="B76" s="15"/>
+      <c r="B76" s="21"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
+      <c r="A77" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="B77" s="15"/>
+      <c r="B77" s="21"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="8"/>
-      <c r="B78" s="15"/>
+      <c r="B78"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="B79" s="15"/>
+      <c r="B79" s="21"/>
       <c r="C79" t="s">
         <v>35</v>
       </c>
@@ -3845,103 +4906,103 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="8" t="s">
+      <c r="A80" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="B80" s="15"/>
+      <c r="B80" s="21"/>
       <c r="D80" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="B81" s="15"/>
+      <c r="B81" s="21"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="8" t="s">
+      <c r="A82" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="B82" s="15"/>
+      <c r="B82" s="21"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="B83" s="15"/>
+      <c r="B83" s="21"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="8" t="s">
+      <c r="A84" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="B84" s="15"/>
+      <c r="B84" s="21"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="8" t="s">
+      <c r="A85" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="B85" s="15"/>
+      <c r="B85" s="21"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="8" t="s">
+      <c r="A86" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="B86" s="15"/>
+      <c r="B86" s="21"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="8" t="s">
+      <c r="A87" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="B87" s="15"/>
+      <c r="B87" s="21"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="8" t="s">
+      <c r="A88" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="B88" s="15"/>
+      <c r="B88" s="21"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="8" t="s">
+      <c r="A89" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="B89" s="15"/>
+      <c r="B89" s="21"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="8" t="s">
+      <c r="A90" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="B90" s="15"/>
+      <c r="B90" s="21"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="B91" s="15"/>
+      <c r="B91" s="21"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="8" t="s">
+      <c r="A92" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="B92" s="15"/>
+      <c r="B92" s="21"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="8" t="s">
+      <c r="A93" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="B93" s="15"/>
+      <c r="B93" s="21"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="8" t="s">
+      <c r="A94" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="B94" s="15"/>
+      <c r="B94" s="21"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="8" t="s">
+      <c r="A95" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="B95" s="15"/>
+      <c r="B95" s="21"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
@@ -4052,23 +5113,23 @@
       </c>
       <c r="B112" s="15"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>202</v>
       </c>
       <c r="B113" s="15"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
         <v>203</v>
       </c>
       <c r="B114" s="15"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
       <c r="B115" s="15"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
         <v>385</v>
       </c>
@@ -4080,76 +5141,73 @@
         <v>98</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
         <v>204</v>
       </c>
       <c r="B117" s="15"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
         <v>205</v>
       </c>
       <c r="B118" s="15"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
         <v>206</v>
       </c>
       <c r="B119" s="15"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
         <v>207</v>
       </c>
       <c r="B120" s="15"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
         <v>208</v>
       </c>
       <c r="B121" s="15"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
         <v>209</v>
       </c>
       <c r="B122" s="15"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
         <v>210</v>
       </c>
       <c r="B123" s="15"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
         <v>211</v>
       </c>
       <c r="B124" s="15"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
         <v>212</v>
       </c>
       <c r="B125" s="15"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
         <v>213</v>
       </c>
       <c r="B126" s="15"/>
-      <c r="H126" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
         <v>214</v>
       </c>
       <c r="B127" s="15"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
         <v>215</v>
       </c>

--- a/AVK_DevOps_Plan.xlsx
+++ b/AVK_DevOps_Plan.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="548">
   <si>
     <t>LINUX</t>
   </si>
@@ -1648,6 +1648,24 @@
   </si>
   <si>
     <t>K8S &amp; HELM</t>
+  </si>
+  <si>
+    <t>4 DAYS</t>
+  </si>
+  <si>
+    <t>2W - 3W</t>
+  </si>
+  <si>
+    <t>AWS LAMBDA</t>
+  </si>
+  <si>
+    <t>INTERVIEW PREP</t>
+  </si>
+  <si>
+    <t>1 WEEK</t>
+  </si>
+  <si>
+    <t>10 D</t>
   </si>
 </sst>
 </file>
@@ -3554,15 +3572,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T69"/>
+  <dimension ref="A1:V74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+      <selection activeCell="V52" sqref="V52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.5703125" customWidth="1"/>
+    <col min="21" max="22" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -3710,32 +3730,32 @@
         <v>463</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>469</v>
       </c>
@@ -3749,7 +3769,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>470</v>
       </c>
@@ -3760,7 +3780,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="Q41" t="s">
         <v>532</v>
       </c>
@@ -3768,7 +3788,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>471</v>
       </c>
@@ -3788,7 +3808,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -3819,14 +3839,20 @@
       <c r="P43" t="s">
         <v>495</v>
       </c>
-      <c r="S43" t="s">
-        <v>535</v>
+      <c r="S43">
+        <v>1</v>
       </c>
       <c r="T43" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="U43" s="22">
+        <v>44589</v>
+      </c>
+      <c r="V43" s="22" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
@@ -3842,14 +3868,23 @@
       <c r="L44" t="s">
         <v>493</v>
       </c>
-      <c r="S44" t="s">
-        <v>537</v>
+      <c r="P44" t="s">
+        <v>495</v>
+      </c>
+      <c r="S44">
+        <v>2</v>
       </c>
       <c r="T44" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+      <c r="U44" s="22">
+        <v>44603</v>
+      </c>
+      <c r="V44" s="22" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
@@ -3868,14 +3903,20 @@
       <c r="N45" t="s">
         <v>501</v>
       </c>
-      <c r="S45" t="s">
-        <v>538</v>
+      <c r="S45">
+        <v>3</v>
       </c>
       <c r="T45" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+      <c r="U45" s="22">
+        <v>44613</v>
+      </c>
+      <c r="V45" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4</v>
       </c>
@@ -3894,14 +3935,17 @@
       <c r="M46" t="s">
         <v>503</v>
       </c>
-      <c r="S46" t="s">
-        <v>540</v>
+      <c r="S46">
+        <v>4</v>
       </c>
       <c r="T46" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+      <c r="U46" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5</v>
       </c>
@@ -3921,7 +3965,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>6</v>
       </c>
@@ -3946,8 +3990,17 @@
       <c r="O48" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S48">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s">
+        <v>497</v>
+      </c>
+      <c r="U48" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>7</v>
       </c>
@@ -3972,8 +4025,17 @@
       <c r="O49" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S49">
+        <v>6</v>
+      </c>
+      <c r="T49" t="s">
+        <v>496</v>
+      </c>
+      <c r="U49" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>8</v>
       </c>
@@ -3995,8 +4057,17 @@
       <c r="N50" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S50">
+        <v>7</v>
+      </c>
+      <c r="T50" t="s">
+        <v>30</v>
+      </c>
+      <c r="U50" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>9</v>
       </c>
@@ -4015,8 +4086,17 @@
       <c r="M51" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S51">
+        <v>8</v>
+      </c>
+      <c r="T51" t="s">
+        <v>514</v>
+      </c>
+      <c r="U51" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>10</v>
       </c>
@@ -4038,8 +4118,17 @@
       <c r="N52" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S52">
+        <v>9</v>
+      </c>
+      <c r="T52" t="s">
+        <v>544</v>
+      </c>
+      <c r="U52" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>11</v>
       </c>
@@ -4055,8 +4144,14 @@
       <c r="M53" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S53">
+        <v>10</v>
+      </c>
+      <c r="T53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>12</v>
       </c>
@@ -4078,8 +4173,17 @@
       <c r="N54" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S54">
+        <v>11</v>
+      </c>
+      <c r="T54" t="s">
+        <v>545</v>
+      </c>
+      <c r="U54" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>13</v>
       </c>
@@ -4105,7 +4209,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>14</v>
       </c>
@@ -4125,7 +4229,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>15</v>
       </c>
@@ -4148,7 +4252,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>16</v>
       </c>
@@ -4168,7 +4272,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>17</v>
       </c>
@@ -4191,7 +4295,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>18</v>
       </c>
@@ -4211,7 +4315,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>19</v>
       </c>
@@ -4231,7 +4335,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>20</v>
       </c>
@@ -4242,7 +4346,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>21</v>
       </c>
@@ -4262,7 +4366,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>483</v>
       </c>
@@ -4288,6 +4392,38 @@
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>489</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>535</v>
+      </c>
+      <c r="B71" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>537</v>
+      </c>
+      <c r="B72" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>538</v>
+      </c>
+      <c r="B73" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>540</v>
+      </c>
+      <c r="B74" t="s">
+        <v>541</v>
       </c>
     </row>
   </sheetData>

--- a/AVK_DevOps_Plan.xlsx
+++ b/AVK_DevOps_Plan.xlsx
@@ -4,13 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4200" windowWidth="28800" windowHeight="12420" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="4200" windowWidth="28800" windowHeight="12420" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="COURSES" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
-    <sheet name="DB-N" sheetId="5" r:id="rId4"/>
+    <sheet name="Accounts" sheetId="8" r:id="rId1"/>
+    <sheet name="COURSES" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
+    <sheet name="DB-N" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -22,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="660">
   <si>
     <t>LINUX</t>
   </si>
@@ -1666,16 +1669,360 @@
   </si>
   <si>
     <t>10 D</t>
+  </si>
+  <si>
+    <t>DAY</t>
+  </si>
+  <si>
+    <t>SATURDAY</t>
+  </si>
+  <si>
+    <t>SUNDAY</t>
+  </si>
+  <si>
+    <t>MONDAY</t>
+  </si>
+  <si>
+    <t>TUESDAY</t>
+  </si>
+  <si>
+    <t>WEDNESDAY</t>
+  </si>
+  <si>
+    <t>THURSDAY</t>
+  </si>
+  <si>
+    <t>FRIDAY</t>
+  </si>
+  <si>
+    <t>INTERVIEW</t>
+  </si>
+  <si>
+    <t>TOPICS COVERED</t>
+  </si>
+  <si>
+    <t>K8S - GAURAV SHAH</t>
+  </si>
+  <si>
+    <t>ULTIMATE CKA - SRINATH CHALLA</t>
+  </si>
+  <si>
+    <t>K8S - HANDS-ON - RICHARD</t>
+  </si>
+  <si>
+    <t>AWS EKS - KALYAN</t>
+  </si>
+  <si>
+    <t>EKS - RAJDEEP SAHA</t>
+  </si>
+  <si>
+    <t>TROUBLESHOOTING K8S</t>
+  </si>
+  <si>
+    <t>DPT LECTURES AND PROJECT</t>
+  </si>
+  <si>
+    <t>DEVOPS MASTERCLASS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEVSECOPS K8S </t>
+  </si>
+  <si>
+    <t>Learn DevOps: Infrastructure Automation With Terraform</t>
+  </si>
+  <si>
+    <t>Automating Enterprise Infrastructure - Terraform and Packer</t>
+  </si>
+  <si>
+    <t>Terraform indepth(2020) - With 10 Realworld Job Casestudies</t>
+  </si>
+  <si>
+    <t>AWS TERRAFORM KALYAN</t>
+  </si>
+  <si>
+    <t>ANSIBLE - AR SHANKAR</t>
+  </si>
+  <si>
+    <t>ANSIBLE - SHIKHAR</t>
+  </si>
+  <si>
+    <t>Prev. HDFC Balance</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>Bore</t>
+  </si>
+  <si>
+    <t>Prev. Bandhan Balance</t>
+  </si>
+  <si>
+    <t>FEB 1ST</t>
+  </si>
+  <si>
+    <t>JAN</t>
+  </si>
+  <si>
+    <t>PREPARE</t>
+  </si>
+  <si>
+    <t>Cement</t>
+  </si>
+  <si>
+    <t>Dec Salary</t>
+  </si>
+  <si>
+    <t>MAR 1ST</t>
+  </si>
+  <si>
+    <t>PREPARE &amp; INTERVIEW</t>
+  </si>
+  <si>
+    <t>Sand</t>
+  </si>
+  <si>
+    <t>Wallet</t>
+  </si>
+  <si>
+    <t>APR 1ST</t>
+  </si>
+  <si>
+    <t>INTERVIEW &amp; JOB</t>
+  </si>
+  <si>
+    <t>Bricks</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>MAY 1ST</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>RELEASE &amp; NEW JOB</t>
+  </si>
+  <si>
+    <t>Aggregate</t>
+  </si>
+  <si>
+    <t>TCHIT</t>
+  </si>
+  <si>
+    <t>JUN</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>V Chits</t>
+  </si>
+  <si>
+    <t>JUL</t>
+  </si>
+  <si>
+    <t>SAVE FOR NIHANT &amp; NIHIRA FD</t>
+  </si>
+  <si>
+    <t>Electrical</t>
+  </si>
+  <si>
+    <t>AUG</t>
+  </si>
+  <si>
+    <t>Plumbing</t>
+  </si>
+  <si>
+    <t>SBI CC</t>
+  </si>
+  <si>
+    <t>SEP</t>
+  </si>
+  <si>
+    <t>SAVE FOR PARVATAGIRI PLOT SHOPS CONST.</t>
+  </si>
+  <si>
+    <t>Marbles</t>
+  </si>
+  <si>
+    <t>OCT</t>
+  </si>
+  <si>
+    <t>Tiles</t>
+  </si>
+  <si>
+    <t>BT-1</t>
+  </si>
+  <si>
+    <t>NOV</t>
+  </si>
+  <si>
+    <t>POP Ceiling</t>
+  </si>
+  <si>
+    <t>BT-2</t>
+  </si>
+  <si>
+    <t>DEC</t>
+  </si>
+  <si>
+    <t>Cuboards</t>
+  </si>
+  <si>
+    <t>BT-3</t>
+  </si>
+  <si>
+    <t>Basement Sand</t>
+  </si>
+  <si>
+    <t>BT-4</t>
+  </si>
+  <si>
+    <t>RESUME BUILD/DEVOPS RESPONSIBILITIES VIDEO</t>
+  </si>
+  <si>
+    <t>Mestri</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>JAN FEB</t>
+  </si>
+  <si>
+    <t>LINUX/BASH SCRIPTING</t>
+  </si>
+  <si>
+    <t>Paint</t>
+  </si>
+  <si>
+    <t>FEB MAR APR</t>
+  </si>
+  <si>
+    <t>JAN SAL/FEB1ST</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>ICICI PL</t>
+  </si>
+  <si>
+    <t>MAY 1ST - R</t>
+  </si>
+  <si>
+    <t>1LAC</t>
+  </si>
+  <si>
+    <t>MAMA</t>
+  </si>
+  <si>
+    <t>JULY</t>
+  </si>
+  <si>
+    <t>FEB SAL/MAR 1ST</t>
+  </si>
+  <si>
+    <t>MAR SAL</t>
+  </si>
+  <si>
+    <t>APR SAL</t>
+  </si>
+  <si>
+    <t>Till section 6 done, but no cluster is installed.</t>
+  </si>
+  <si>
+    <t>Completed till section 10</t>
+  </si>
+  <si>
+    <t>ICICI</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>done till Pod</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Full DevOps Courses</t>
+  </si>
+  <si>
+    <t>Full Individual Courses</t>
+  </si>
+  <si>
+    <t>DevOps Masterclass</t>
+  </si>
+  <si>
+    <t>DevOps Bootcamp - Nana</t>
+  </si>
+  <si>
+    <t>DPT Classes</t>
+  </si>
+  <si>
+    <t>Ranga Karanam</t>
+  </si>
+  <si>
+    <t>Stephen SAA</t>
+  </si>
+  <si>
+    <t>Stephen SOP</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>AWS Terraform</t>
+  </si>
+  <si>
+    <t>Kalyan Trf -1</t>
+  </si>
+  <si>
+    <t>Kalyan Trf - 2</t>
+  </si>
+  <si>
+    <t>Ansible</t>
+  </si>
+  <si>
+    <t>Ar Shankar</t>
+  </si>
+  <si>
+    <t>Shikhar</t>
+  </si>
+  <si>
+    <t>Kubernetes</t>
+  </si>
+  <si>
+    <t>AWS Lambda</t>
+  </si>
+  <si>
+    <t>API gateway</t>
+  </si>
+  <si>
+    <t>Python</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1743,10 +2090,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1790,8 +2138,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2070,6 +2426,1116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C1">
+        <v>127661.86</v>
+      </c>
+      <c r="D1">
+        <v>143193.72</v>
+      </c>
+      <c r="F1">
+        <v>2</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="H1" s="24">
+        <v>44623</v>
+      </c>
+      <c r="I1">
+        <v>38</v>
+      </c>
+      <c r="J1">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>574</v>
+      </c>
+      <c r="N1" s="5">
+        <v>2022</v>
+      </c>
+      <c r="X1" t="s">
+        <v>575</v>
+      </c>
+      <c r="Y1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D2">
+        <v>4461.87</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>8</v>
+      </c>
+      <c r="H2" s="24">
+        <v>44988</v>
+      </c>
+      <c r="I2">
+        <v>39</v>
+      </c>
+      <c r="J2">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>577</v>
+      </c>
+      <c r="M2" t="s">
+        <v>578</v>
+      </c>
+      <c r="N2" t="s">
+        <v>579</v>
+      </c>
+      <c r="T2" s="22"/>
+      <c r="X2" t="s">
+        <v>580</v>
+      </c>
+      <c r="Y2">
+        <v>368000</v>
+      </c>
+      <c r="Z2">
+        <v>800</v>
+      </c>
+      <c r="AA2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>581</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>9</v>
+      </c>
+      <c r="H3" s="24">
+        <v>45354</v>
+      </c>
+      <c r="I3">
+        <v>40</v>
+      </c>
+      <c r="J3">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>582</v>
+      </c>
+      <c r="M3" t="s">
+        <v>364</v>
+      </c>
+      <c r="N3" t="s">
+        <v>583</v>
+      </c>
+      <c r="T3" s="22"/>
+      <c r="X3" t="s">
+        <v>584</v>
+      </c>
+      <c r="Y3">
+        <v>200000</v>
+      </c>
+      <c r="Z3">
+        <v>38</v>
+      </c>
+      <c r="AA3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>585</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4" s="24">
+        <v>45719</v>
+      </c>
+      <c r="I4">
+        <v>41</v>
+      </c>
+      <c r="J4">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>586</v>
+      </c>
+      <c r="M4" t="s">
+        <v>365</v>
+      </c>
+      <c r="N4" t="s">
+        <v>587</v>
+      </c>
+      <c r="T4" s="22"/>
+      <c r="X4" t="s">
+        <v>588</v>
+      </c>
+      <c r="Y4">
+        <v>280000</v>
+      </c>
+      <c r="Z4">
+        <v>8</v>
+      </c>
+      <c r="AA4">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>589</v>
+      </c>
+      <c r="C5">
+        <v>210</v>
+      </c>
+      <c r="D5">
+        <f>SUM(D1:D4)</f>
+        <v>147655.59</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>11</v>
+      </c>
+      <c r="H5" s="24">
+        <v>46084</v>
+      </c>
+      <c r="I5">
+        <v>42</v>
+      </c>
+      <c r="J5">
+        <v>34</v>
+      </c>
+      <c r="L5" t="s">
+        <v>590</v>
+      </c>
+      <c r="M5" t="s">
+        <v>366</v>
+      </c>
+      <c r="N5" t="s">
+        <v>587</v>
+      </c>
+      <c r="T5" s="22"/>
+      <c r="X5" t="s">
+        <v>591</v>
+      </c>
+      <c r="Y5">
+        <v>468000</v>
+      </c>
+      <c r="Z5">
+        <v>6</v>
+      </c>
+      <c r="AA5">
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6" s="24">
+        <v>46449</v>
+      </c>
+      <c r="I6">
+        <v>43</v>
+      </c>
+      <c r="J6">
+        <v>35</v>
+      </c>
+      <c r="M6" t="s">
+        <v>367</v>
+      </c>
+      <c r="N6" t="s">
+        <v>592</v>
+      </c>
+      <c r="T6" s="22"/>
+      <c r="X6" t="s">
+        <v>593</v>
+      </c>
+      <c r="Y6">
+        <v>68000</v>
+      </c>
+      <c r="Z6">
+        <v>18</v>
+      </c>
+      <c r="AA6">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>594</v>
+      </c>
+      <c r="C7">
+        <v>3000</v>
+      </c>
+      <c r="D7">
+        <v>3000</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>13</v>
+      </c>
+      <c r="H7" s="24">
+        <v>46815</v>
+      </c>
+      <c r="I7">
+        <v>44</v>
+      </c>
+      <c r="J7">
+        <v>36</v>
+      </c>
+      <c r="M7" t="s">
+        <v>595</v>
+      </c>
+      <c r="N7" t="s">
+        <v>592</v>
+      </c>
+      <c r="T7" s="22"/>
+      <c r="X7" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y7">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>597</v>
+      </c>
+      <c r="C8">
+        <v>11500</v>
+      </c>
+      <c r="D8">
+        <v>11250</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>14</v>
+      </c>
+      <c r="H8" s="24">
+        <v>47180</v>
+      </c>
+      <c r="I8">
+        <v>45</v>
+      </c>
+      <c r="J8">
+        <v>37</v>
+      </c>
+      <c r="M8" t="s">
+        <v>598</v>
+      </c>
+      <c r="N8" t="s">
+        <v>599</v>
+      </c>
+      <c r="X8" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>637</v>
+      </c>
+      <c r="C9">
+        <v>90402</v>
+      </c>
+      <c r="D9">
+        <v>90402</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>15</v>
+      </c>
+      <c r="H9" s="24">
+        <v>47545</v>
+      </c>
+      <c r="I9">
+        <v>46</v>
+      </c>
+      <c r="J9">
+        <v>38</v>
+      </c>
+      <c r="M9" t="s">
+        <v>601</v>
+      </c>
+      <c r="N9" t="s">
+        <v>599</v>
+      </c>
+      <c r="X9" t="s">
+        <v>602</v>
+      </c>
+      <c r="Y9">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>603</v>
+      </c>
+      <c r="C10">
+        <v>5606</v>
+      </c>
+      <c r="D10">
+        <v>12174.98</v>
+      </c>
+      <c r="F10">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>16</v>
+      </c>
+      <c r="H10" s="24">
+        <v>47910</v>
+      </c>
+      <c r="I10">
+        <v>47</v>
+      </c>
+      <c r="J10">
+        <v>39</v>
+      </c>
+      <c r="M10" t="s">
+        <v>604</v>
+      </c>
+      <c r="N10" t="s">
+        <v>605</v>
+      </c>
+      <c r="X10" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f>SUM(C5:C10)</f>
+        <v>110718</v>
+      </c>
+      <c r="D11">
+        <f>SUM(D7:D10)</f>
+        <v>116826.98</v>
+      </c>
+      <c r="F11">
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <v>17</v>
+      </c>
+      <c r="H11" s="24">
+        <v>48276</v>
+      </c>
+      <c r="I11">
+        <v>48</v>
+      </c>
+      <c r="J11">
+        <v>40</v>
+      </c>
+      <c r="M11" t="s">
+        <v>607</v>
+      </c>
+      <c r="N11" t="s">
+        <v>605</v>
+      </c>
+      <c r="X11" t="s">
+        <v>608</v>
+      </c>
+      <c r="Y11">
+        <v>270000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>638</v>
+      </c>
+      <c r="C12">
+        <f>(C1-C11)</f>
+        <v>16943.86</v>
+      </c>
+      <c r="F12" t="s">
+        <v>609</v>
+      </c>
+      <c r="G12">
+        <v>18</v>
+      </c>
+      <c r="H12" s="24">
+        <v>48641</v>
+      </c>
+      <c r="I12">
+        <v>49</v>
+      </c>
+      <c r="J12">
+        <v>41</v>
+      </c>
+      <c r="M12" t="s">
+        <v>610</v>
+      </c>
+      <c r="N12" t="s">
+        <v>605</v>
+      </c>
+      <c r="X12" t="s">
+        <v>611</v>
+      </c>
+      <c r="Y12">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>612</v>
+      </c>
+      <c r="G13">
+        <v>19</v>
+      </c>
+      <c r="H13" s="24">
+        <v>49006</v>
+      </c>
+      <c r="I13">
+        <v>50</v>
+      </c>
+      <c r="J13">
+        <v>42</v>
+      </c>
+      <c r="M13" t="s">
+        <v>613</v>
+      </c>
+      <c r="N13" t="s">
+        <v>605</v>
+      </c>
+      <c r="X13" t="s">
+        <v>614</v>
+      </c>
+      <c r="Y13">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>615</v>
+      </c>
+      <c r="G14">
+        <v>20</v>
+      </c>
+      <c r="H14" s="24">
+        <v>49371</v>
+      </c>
+      <c r="I14">
+        <v>51</v>
+      </c>
+      <c r="J14">
+        <v>43</v>
+      </c>
+      <c r="N14">
+        <v>90</v>
+      </c>
+      <c r="X14" t="s">
+        <v>616</v>
+      </c>
+      <c r="Y14">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>617</v>
+      </c>
+      <c r="G15">
+        <v>21</v>
+      </c>
+      <c r="H15" s="24">
+        <v>49737</v>
+      </c>
+      <c r="I15">
+        <v>52</v>
+      </c>
+      <c r="J15">
+        <v>44</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>618</v>
+      </c>
+      <c r="X15" t="s">
+        <v>619</v>
+      </c>
+      <c r="Y15">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>620</v>
+      </c>
+      <c r="G16">
+        <v>22</v>
+      </c>
+      <c r="H16" s="24">
+        <v>50102</v>
+      </c>
+      <c r="I16">
+        <v>53</v>
+      </c>
+      <c r="J16">
+        <v>45</v>
+      </c>
+      <c r="O16" t="s">
+        <v>621</v>
+      </c>
+      <c r="P16">
+        <v>14</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>622</v>
+      </c>
+      <c r="X16" t="s">
+        <v>623</v>
+      </c>
+      <c r="Y16">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>589</v>
+      </c>
+      <c r="D17">
+        <f>(D5-D11)</f>
+        <v>30828.61</v>
+      </c>
+      <c r="F17" t="s">
+        <v>620</v>
+      </c>
+      <c r="G17">
+        <v>23</v>
+      </c>
+      <c r="H17" s="24">
+        <v>50467</v>
+      </c>
+      <c r="I17">
+        <v>54</v>
+      </c>
+      <c r="J17">
+        <v>46</v>
+      </c>
+      <c r="O17" t="s">
+        <v>624</v>
+      </c>
+      <c r="P17">
+        <v>14</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>620</v>
+      </c>
+      <c r="G18">
+        <v>24</v>
+      </c>
+      <c r="H18" s="24">
+        <v>50832</v>
+      </c>
+      <c r="I18">
+        <v>55</v>
+      </c>
+      <c r="J18">
+        <v>47</v>
+      </c>
+      <c r="L18" t="s">
+        <v>578</v>
+      </c>
+      <c r="M18" t="s">
+        <v>364</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18" t="s">
+        <v>366</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y18">
+        <f>SUM(Y1:Y17)</f>
+        <v>3904000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D19">
+        <v>99500</v>
+      </c>
+      <c r="F19" t="s">
+        <v>620</v>
+      </c>
+      <c r="G19">
+        <v>25</v>
+      </c>
+      <c r="H19" s="24">
+        <v>51198</v>
+      </c>
+      <c r="I19">
+        <v>56</v>
+      </c>
+      <c r="J19">
+        <v>48</v>
+      </c>
+      <c r="L19" t="s">
+        <v>364</v>
+      </c>
+      <c r="M19" t="s">
+        <v>365</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
+      </c>
+      <c r="O19" t="s">
+        <v>366</v>
+      </c>
+      <c r="P19">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>26</v>
+      </c>
+      <c r="H20" s="24">
+        <v>51563</v>
+      </c>
+      <c r="I20">
+        <v>57</v>
+      </c>
+      <c r="J20">
+        <v>49</v>
+      </c>
+      <c r="L20" t="s">
+        <v>365</v>
+      </c>
+      <c r="M20" t="s">
+        <v>366</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="P20">
+        <v>14</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>626</v>
+      </c>
+      <c r="D21">
+        <f>SUM(D17:D20)</f>
+        <v>130328.61</v>
+      </c>
+      <c r="G21">
+        <v>27</v>
+      </c>
+      <c r="H21" s="24">
+        <v>51928</v>
+      </c>
+      <c r="I21">
+        <v>58</v>
+      </c>
+      <c r="J21">
+        <v>50</v>
+      </c>
+      <c r="L21" t="s">
+        <v>366</v>
+      </c>
+      <c r="M21" t="s">
+        <v>367</v>
+      </c>
+      <c r="N21">
+        <v>4</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>627</v>
+      </c>
+      <c r="D22">
+        <v>90403</v>
+      </c>
+      <c r="G22">
+        <v>28</v>
+      </c>
+      <c r="H22" s="24">
+        <v>52293</v>
+      </c>
+      <c r="I22">
+        <v>59</v>
+      </c>
+      <c r="J22">
+        <v>51</v>
+      </c>
+      <c r="L22" t="s">
+        <v>628</v>
+      </c>
+      <c r="M22" t="s">
+        <v>595</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>25</v>
+      </c>
+      <c r="T22">
+        <v>514</v>
+      </c>
+      <c r="W22" t="s">
+        <v>629</v>
+      </c>
+      <c r="X22" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y22">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>630</v>
+      </c>
+      <c r="D23">
+        <v>40000</v>
+      </c>
+      <c r="G23">
+        <v>29</v>
+      </c>
+      <c r="H23" s="24">
+        <v>52659</v>
+      </c>
+      <c r="I23">
+        <v>60</v>
+      </c>
+      <c r="J23">
+        <v>52</v>
+      </c>
+      <c r="L23" t="s">
+        <v>595</v>
+      </c>
+      <c r="M23" t="s">
+        <v>631</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
+      </c>
+      <c r="P23">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>93</v>
+      </c>
+      <c r="T23">
+        <v>309</v>
+      </c>
+      <c r="W23" t="s">
+        <v>629</v>
+      </c>
+      <c r="X23" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y23">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>626</v>
+      </c>
+      <c r="D24">
+        <f>(D21-D22-D23)</f>
+        <v>-74.389999999999418</v>
+      </c>
+      <c r="G24">
+        <v>30</v>
+      </c>
+      <c r="H24" s="24">
+        <v>53024</v>
+      </c>
+      <c r="I24">
+        <v>61</v>
+      </c>
+      <c r="J24">
+        <v>53</v>
+      </c>
+      <c r="L24" t="s">
+        <v>631</v>
+      </c>
+      <c r="M24" t="s">
+        <v>601</v>
+      </c>
+      <c r="N24">
+        <v>3</v>
+      </c>
+      <c r="W24" t="s">
+        <v>629</v>
+      </c>
+      <c r="X24" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y24">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P25">
+        <v>7</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>30</v>
+      </c>
+      <c r="T25">
+        <v>1457</v>
+      </c>
+      <c r="W25" t="s">
+        <v>629</v>
+      </c>
+      <c r="X25" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y25">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>632</v>
+      </c>
+      <c r="D26">
+        <v>99500</v>
+      </c>
+      <c r="P26">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>32</v>
+      </c>
+      <c r="W26" t="s">
+        <v>629</v>
+      </c>
+      <c r="X26" t="s">
+        <v>595</v>
+      </c>
+      <c r="Y26">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>34</v>
+      </c>
+      <c r="X27" t="s">
+        <v>598</v>
+      </c>
+      <c r="Y27">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>626</v>
+      </c>
+      <c r="D28">
+        <f>SUM(D24:D27)</f>
+        <v>99425.61</v>
+      </c>
+      <c r="I28">
+        <v>90403</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28" t="s">
+        <v>640</v>
+      </c>
+      <c r="L28">
+        <v>127661.86</v>
+      </c>
+      <c r="P28">
+        <v>7</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>35</v>
+      </c>
+      <c r="T28">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <v>25000</v>
+      </c>
+      <c r="K29" t="s">
+        <v>640</v>
+      </c>
+      <c r="L29">
+        <v>90403</v>
+      </c>
+      <c r="P29">
+        <v>14</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>630</v>
+      </c>
+      <c r="D30">
+        <v>50000</v>
+      </c>
+      <c r="J30">
+        <v>25000</v>
+      </c>
+      <c r="K30" t="s">
+        <v>640</v>
+      </c>
+      <c r="L30">
+        <f>(L28-L29)</f>
+        <v>37258.86</v>
+      </c>
+      <c r="P30">
+        <v>5</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <v>25000</v>
+      </c>
+      <c r="K31" t="s">
+        <v>640</v>
+      </c>
+      <c r="P31">
+        <v>2</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>626</v>
+      </c>
+      <c r="D32">
+        <f>(D28-D30)</f>
+        <v>49425.61</v>
+      </c>
+      <c r="J32">
+        <v>15400</v>
+      </c>
+      <c r="K32" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P33">
+        <f>SUM(P16:P32)</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>633</v>
+      </c>
+      <c r="B34" t="s">
+        <v>586</v>
+      </c>
+      <c r="D34">
+        <v>99500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>634</v>
+      </c>
+      <c r="B35" t="s">
+        <v>590</v>
+      </c>
+      <c r="D35">
+        <v>99500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <f>SUM(D32:D35)</f>
+        <v>248425.61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2779,7 +4245,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q37"/>
   <sheetViews>
@@ -3570,12 +5036,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="V52" sqref="V52"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="U43" sqref="U43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4431,7 +5897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M282"/>
   <sheetViews>
@@ -6301,4 +7767,1206 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55" customWidth="1"/>
+    <col min="4" max="4" width="41.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="22">
+        <v>44590</v>
+      </c>
+      <c r="B2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
+        <v>44591</v>
+      </c>
+      <c r="B3" t="s">
+        <v>550</v>
+      </c>
+      <c r="C3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D3" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
+        <v>44592</v>
+      </c>
+      <c r="B4" t="s">
+        <v>551</v>
+      </c>
+      <c r="C4" t="s">
+        <v>558</v>
+      </c>
+      <c r="D4" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>44593</v>
+      </c>
+      <c r="B5" t="s">
+        <v>552</v>
+      </c>
+      <c r="C5" t="s">
+        <v>559</v>
+      </c>
+      <c r="D5" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
+        <v>44594</v>
+      </c>
+      <c r="B6" t="s">
+        <v>553</v>
+      </c>
+      <c r="C6" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>44595</v>
+      </c>
+      <c r="B7" t="s">
+        <v>554</v>
+      </c>
+      <c r="C7" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
+        <v>44596</v>
+      </c>
+      <c r="B8" t="s">
+        <v>555</v>
+      </c>
+      <c r="C8" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>44597</v>
+      </c>
+      <c r="B9" t="s">
+        <v>549</v>
+      </c>
+      <c r="C9" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
+        <v>44598</v>
+      </c>
+      <c r="B10" t="s">
+        <v>550</v>
+      </c>
+      <c r="C10" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
+        <v>44599</v>
+      </c>
+      <c r="B11" t="s">
+        <v>551</v>
+      </c>
+      <c r="C11" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="22">
+        <v>44600</v>
+      </c>
+      <c r="B12" t="s">
+        <v>552</v>
+      </c>
+      <c r="C12" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
+        <v>44601</v>
+      </c>
+      <c r="B13" t="s">
+        <v>553</v>
+      </c>
+      <c r="C13" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="22">
+        <v>44602</v>
+      </c>
+      <c r="B14" t="s">
+        <v>554</v>
+      </c>
+      <c r="C14" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
+        <v>44603</v>
+      </c>
+      <c r="B15" t="s">
+        <v>555</v>
+      </c>
+      <c r="C15" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="22">
+        <v>44604</v>
+      </c>
+      <c r="B16" t="s">
+        <v>549</v>
+      </c>
+      <c r="C16" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
+        <v>44605</v>
+      </c>
+      <c r="B17" t="s">
+        <v>550</v>
+      </c>
+      <c r="C17" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="22">
+        <v>44606</v>
+      </c>
+      <c r="B18" t="s">
+        <v>551</v>
+      </c>
+      <c r="C18" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="22">
+        <v>44607</v>
+      </c>
+      <c r="B19" t="s">
+        <v>552</v>
+      </c>
+      <c r="C19" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="22">
+        <v>44608</v>
+      </c>
+      <c r="B20" t="s">
+        <v>553</v>
+      </c>
+      <c r="C20" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="22">
+        <v>44609</v>
+      </c>
+      <c r="B21" t="s">
+        <v>554</v>
+      </c>
+      <c r="C21" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="22">
+        <v>44610</v>
+      </c>
+      <c r="B22" t="s">
+        <v>555</v>
+      </c>
+      <c r="C22" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="22">
+        <v>44611</v>
+      </c>
+      <c r="B23" t="s">
+        <v>549</v>
+      </c>
+      <c r="C23" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="22">
+        <v>44612</v>
+      </c>
+      <c r="B24" t="s">
+        <v>550</v>
+      </c>
+      <c r="C24" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="22">
+        <v>44613</v>
+      </c>
+      <c r="B25" t="s">
+        <v>551</v>
+      </c>
+      <c r="C25" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="22">
+        <v>44614</v>
+      </c>
+      <c r="B26" t="s">
+        <v>552</v>
+      </c>
+      <c r="C26" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="22">
+        <v>44615</v>
+      </c>
+      <c r="B27" t="s">
+        <v>553</v>
+      </c>
+      <c r="C27" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="22">
+        <v>44616</v>
+      </c>
+      <c r="B28" t="s">
+        <v>554</v>
+      </c>
+      <c r="C28" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="22">
+        <v>44617</v>
+      </c>
+      <c r="B29" t="s">
+        <v>555</v>
+      </c>
+      <c r="C29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="22">
+        <v>44618</v>
+      </c>
+      <c r="B30" t="s">
+        <v>549</v>
+      </c>
+      <c r="C30" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="22">
+        <v>44619</v>
+      </c>
+      <c r="B31" t="s">
+        <v>550</v>
+      </c>
+      <c r="C31" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="22">
+        <v>44620</v>
+      </c>
+      <c r="B32" t="s">
+        <v>551</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="22">
+        <v>44621</v>
+      </c>
+      <c r="B33" t="s">
+        <v>552</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="22">
+        <v>44622</v>
+      </c>
+      <c r="B34" t="s">
+        <v>553</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="22">
+        <v>44623</v>
+      </c>
+      <c r="B35" t="s">
+        <v>554</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="22">
+        <v>44624</v>
+      </c>
+      <c r="B36" t="s">
+        <v>555</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="22">
+        <v>44625</v>
+      </c>
+      <c r="B37" t="s">
+        <v>549</v>
+      </c>
+      <c r="C37" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="22">
+        <v>44626</v>
+      </c>
+      <c r="B38" t="s">
+        <v>550</v>
+      </c>
+      <c r="C38" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="22">
+        <v>44627</v>
+      </c>
+      <c r="B39" t="s">
+        <v>551</v>
+      </c>
+      <c r="C39" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="22">
+        <v>44628</v>
+      </c>
+      <c r="B40" t="s">
+        <v>552</v>
+      </c>
+      <c r="C40" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="22">
+        <v>44629</v>
+      </c>
+      <c r="B41" t="s">
+        <v>553</v>
+      </c>
+      <c r="C41" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="22">
+        <v>44630</v>
+      </c>
+      <c r="B42" t="s">
+        <v>554</v>
+      </c>
+      <c r="C42" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="22">
+        <v>44631</v>
+      </c>
+      <c r="B43" t="s">
+        <v>555</v>
+      </c>
+      <c r="C43" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="22">
+        <v>44632</v>
+      </c>
+      <c r="B44" t="s">
+        <v>549</v>
+      </c>
+      <c r="C44" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="22">
+        <v>44633</v>
+      </c>
+      <c r="B45" t="s">
+        <v>550</v>
+      </c>
+      <c r="C45" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="22">
+        <v>44634</v>
+      </c>
+      <c r="B46" t="s">
+        <v>551</v>
+      </c>
+      <c r="C46" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="22">
+        <v>44635</v>
+      </c>
+      <c r="B47" t="s">
+        <v>552</v>
+      </c>
+      <c r="C47" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="22">
+        <v>44636</v>
+      </c>
+      <c r="B48" t="s">
+        <v>553</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="22">
+        <v>44637</v>
+      </c>
+      <c r="B49" t="s">
+        <v>554</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="22">
+        <v>44638</v>
+      </c>
+      <c r="B50" t="s">
+        <v>555</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="22">
+        <v>44639</v>
+      </c>
+      <c r="B51" t="s">
+        <v>549</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="22">
+        <v>44640</v>
+      </c>
+      <c r="B52" t="s">
+        <v>550</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="22">
+        <v>44641</v>
+      </c>
+      <c r="B53" t="s">
+        <v>551</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="22">
+        <v>44642</v>
+      </c>
+      <c r="B54" t="s">
+        <v>552</v>
+      </c>
+      <c r="C54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="22">
+        <v>44643</v>
+      </c>
+      <c r="B55" t="s">
+        <v>553</v>
+      </c>
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="22">
+        <v>44644</v>
+      </c>
+      <c r="B56" t="s">
+        <v>554</v>
+      </c>
+      <c r="C56" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="22">
+        <v>44645</v>
+      </c>
+      <c r="B57" t="s">
+        <v>555</v>
+      </c>
+      <c r="C57" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="22">
+        <v>44646</v>
+      </c>
+      <c r="B58" t="s">
+        <v>549</v>
+      </c>
+      <c r="C58" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="22">
+        <v>44647</v>
+      </c>
+      <c r="B59" t="s">
+        <v>550</v>
+      </c>
+      <c r="C59" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="22">
+        <v>44648</v>
+      </c>
+      <c r="B60" t="s">
+        <v>551</v>
+      </c>
+      <c r="C60" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="22">
+        <v>44649</v>
+      </c>
+      <c r="B61" t="s">
+        <v>552</v>
+      </c>
+      <c r="C61" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="22">
+        <v>44650</v>
+      </c>
+      <c r="B62" t="s">
+        <v>553</v>
+      </c>
+      <c r="C62" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="22">
+        <v>44651</v>
+      </c>
+      <c r="B63" t="s">
+        <v>554</v>
+      </c>
+      <c r="C63" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="22">
+        <v>44652</v>
+      </c>
+      <c r="B64" t="s">
+        <v>555</v>
+      </c>
+      <c r="C64" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="22">
+        <v>44653</v>
+      </c>
+      <c r="B65" t="s">
+        <v>549</v>
+      </c>
+      <c r="C65" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="22">
+        <v>44654</v>
+      </c>
+      <c r="B66" t="s">
+        <v>550</v>
+      </c>
+      <c r="C66" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="22">
+        <v>44655</v>
+      </c>
+      <c r="B67" t="s">
+        <v>551</v>
+      </c>
+      <c r="C67" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="22">
+        <v>44656</v>
+      </c>
+      <c r="B68" t="s">
+        <v>552</v>
+      </c>
+      <c r="C68" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="22">
+        <v>44657</v>
+      </c>
+      <c r="B69" t="s">
+        <v>553</v>
+      </c>
+      <c r="C69" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="22">
+        <v>44658</v>
+      </c>
+      <c r="B70" t="s">
+        <v>554</v>
+      </c>
+      <c r="C70" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="22">
+        <v>44659</v>
+      </c>
+      <c r="B71" t="s">
+        <v>555</v>
+      </c>
+      <c r="C71" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="22">
+        <v>44660</v>
+      </c>
+      <c r="B72" t="s">
+        <v>549</v>
+      </c>
+      <c r="C72" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="22">
+        <v>44661</v>
+      </c>
+      <c r="B73" t="s">
+        <v>550</v>
+      </c>
+      <c r="C73" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="22">
+        <v>44662</v>
+      </c>
+      <c r="B74" t="s">
+        <v>551</v>
+      </c>
+      <c r="C74" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="22">
+        <v>44663</v>
+      </c>
+      <c r="B75" t="s">
+        <v>552</v>
+      </c>
+      <c r="C75" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="22">
+        <v>44664</v>
+      </c>
+      <c r="B76" t="s">
+        <v>553</v>
+      </c>
+      <c r="C76" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="22">
+        <v>44665</v>
+      </c>
+      <c r="B77" t="s">
+        <v>554</v>
+      </c>
+      <c r="C77" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="22">
+        <v>44666</v>
+      </c>
+      <c r="B78" t="s">
+        <v>555</v>
+      </c>
+      <c r="C78" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="22">
+        <v>44667</v>
+      </c>
+      <c r="B79" t="s">
+        <v>549</v>
+      </c>
+      <c r="C79" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="22">
+        <v>44668</v>
+      </c>
+      <c r="B80" t="s">
+        <v>550</v>
+      </c>
+      <c r="C80" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="22">
+        <v>44669</v>
+      </c>
+      <c r="B81" t="s">
+        <v>551</v>
+      </c>
+      <c r="C81" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="22">
+        <v>44670</v>
+      </c>
+      <c r="B82" t="s">
+        <v>552</v>
+      </c>
+      <c r="C82" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="22">
+        <v>44671</v>
+      </c>
+      <c r="B83" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="22">
+        <v>44672</v>
+      </c>
+      <c r="B84" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="22">
+        <v>44673</v>
+      </c>
+      <c r="B85" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="22">
+        <v>44674</v>
+      </c>
+      <c r="B86" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="22">
+        <v>44675</v>
+      </c>
+      <c r="B87" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="22">
+        <v>44676</v>
+      </c>
+      <c r="B88" t="s">
+        <v>551</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C32" r:id="rId1" display="https://www.udemy.com/course/learn-devops-infrastructure-automation-with-terraform/"/>
+    <hyperlink ref="C34" r:id="rId2" display="https://www.udemy.com/course/terraform-and-packer/"/>
+    <hyperlink ref="C35" r:id="rId3" display="https://www.udemy.com/course/terraform-indepth-with-7-realtime-casestudies/"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>641</v>
+      </c>
+      <c r="D1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B3" t="s">
+        <v>644</v>
+      </c>
+      <c r="C3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E3" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>645</v>
+      </c>
+      <c r="C4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E4" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>366</v>
+      </c>
+      <c r="E5" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>366</v>
+      </c>
+      <c r="D6" t="s">
+        <v>650</v>
+      </c>
+      <c r="E6" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>366</v>
+      </c>
+      <c r="E7" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>366</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>366</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>366</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>366</v>
+      </c>
+      <c r="D11" t="s">
+        <v>653</v>
+      </c>
+      <c r="E11" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>366</v>
+      </c>
+      <c r="E12" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>366</v>
+      </c>
+      <c r="D13" t="s">
+        <v>656</v>
+      </c>
+      <c r="E13" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>366</v>
+      </c>
+      <c r="E14" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>366</v>
+      </c>
+      <c r="E15" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>366</v>
+      </c>
+      <c r="E16" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>366</v>
+      </c>
+      <c r="E17" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>366</v>
+      </c>
+      <c r="E18" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>366</v>
+      </c>
+      <c r="D19" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>659</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E9" r:id="rId1" display="https://www.udemy.com/course/terraform-and-packer/"/>
+    <hyperlink ref="E10" r:id="rId2" display="https://www.udemy.com/course/terraform-indepth-with-7-realtime-casestudies/"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AVK_DevOps_Plan.xlsx
+++ b/AVK_DevOps_Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4200" windowWidth="28800" windowHeight="12420" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="4200" windowWidth="28800" windowHeight="12420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Accounts" sheetId="8" r:id="rId1"/>
@@ -5901,8 +5901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M282"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="K129" sqref="K129"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8756,8 +8756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
